--- a/data/trans_orig/IP11A-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP11A-Edad-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8A92054C-9EB2-422B-9DEA-7B42C21950E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CC756A0F-44C4-4985-B87A-E27FE6B15BA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{1B8887D3-AE9C-4AEA-8060-9C82130FB1A3}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{EAD8DE91-2949-4216-AFBE-95651474D58A}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1700" uniqueCount="722">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1700" uniqueCount="708">
   <si>
     <t>Menores según el lugar donde se produjo el accidente en 2007 (Tasa respuesta: 5,85%)</t>
   </si>
@@ -101,19 +101,19 @@
     <t>9,66%</t>
   </si>
   <si>
-    <t>39,77%</t>
+    <t>41,18%</t>
   </si>
   <si>
     <t>14,74%</t>
   </si>
   <si>
-    <t>64,8%</t>
+    <t>62,17%</t>
   </si>
   <si>
     <t>11,36%</t>
   </si>
   <si>
-    <t>30,69%</t>
+    <t>34,02%</t>
   </si>
   <si>
     <t>En un lugar de recreo o deporte</t>
@@ -122,13 +122,13 @@
     <t>8,23%</t>
   </si>
   <si>
-    <t>36,79%</t>
+    <t>37,65%</t>
   </si>
   <si>
     <t>5,48%</t>
   </si>
   <si>
-    <t>22,71%</t>
+    <t>28,66%</t>
   </si>
   <si>
     <t>En la escuela, colegio, guardería</t>
@@ -140,7 +140,7 @@
     <t>82,11%</t>
   </si>
   <si>
-    <t>45,18%</t>
+    <t>53,31%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -149,16 +149,16 @@
     <t>85,26%</t>
   </si>
   <si>
-    <t>35,2%</t>
+    <t>37,83%</t>
   </si>
   <si>
     <t>83,16%</t>
   </si>
   <si>
-    <t>59,64%</t>
-  </si>
-  <si>
-    <t>95,19%</t>
+    <t>60,36%</t>
+  </si>
+  <si>
+    <t>95,16%</t>
   </si>
   <si>
     <t>100%</t>
@@ -179,2032 +179,1990 @@
     <t>3,03%</t>
   </si>
   <si>
-    <t>15,82%</t>
+    <t>15,83%</t>
   </si>
   <si>
     <t>1,66%</t>
   </si>
   <si>
-    <t>8,49%</t>
-  </si>
-  <si>
     <t>12,55%</t>
   </si>
   <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>30,22%</t>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>29,87%</t>
   </si>
   <si>
     <t>10,8%</t>
   </si>
   <si>
-    <t>31,96%</t>
+    <t>36,62%</t>
   </si>
   <si>
     <t>11,76%</t>
   </si>
   <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>23,79%</t>
+  </si>
+  <si>
+    <t>8,24%</t>
+  </si>
+  <si>
+    <t>25,7%</t>
+  </si>
+  <si>
+    <t>10,29%</t>
+  </si>
+  <si>
+    <t>33,31%</t>
+  </si>
+  <si>
+    <t>9,17%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>21,87%</t>
+  </si>
+  <si>
+    <t>28,96%</t>
+  </si>
+  <si>
+    <t>12,53%</t>
+  </si>
+  <si>
+    <t>50,06%</t>
+  </si>
+  <si>
+    <t>41,14%</t>
+  </si>
+  <si>
+    <t>21,36%</t>
+  </si>
+  <si>
+    <t>62,97%</t>
+  </si>
+  <si>
+    <t>34,5%</t>
+  </si>
+  <si>
+    <t>20,76%</t>
+  </si>
+  <si>
+    <t>48,61%</t>
+  </si>
+  <si>
+    <t>47,21%</t>
+  </si>
+  <si>
+    <t>26,86%</t>
+  </si>
+  <si>
+    <t>66,48%</t>
+  </si>
+  <si>
+    <t>37,77%</t>
+  </si>
+  <si>
+    <t>17,62%</t>
+  </si>
+  <si>
+    <t>58,86%</t>
+  </si>
+  <si>
+    <t>42,92%</t>
+  </si>
+  <si>
+    <t>29,39%</t>
+  </si>
+  <si>
+    <t>59,13%</t>
+  </si>
+  <si>
+    <t>8-11</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>46,04%</t>
+  </si>
+  <si>
+    <t>20,06%</t>
+  </si>
+  <si>
+    <t>70,0%</t>
+  </si>
+  <si>
+    <t>22,4%</t>
+  </si>
+  <si>
+    <t>6,58%</t>
+  </si>
+  <si>
+    <t>51,79%</t>
+  </si>
+  <si>
+    <t>35,57%</t>
+  </si>
+  <si>
+    <t>19,03%</t>
+  </si>
+  <si>
+    <t>54,21%</t>
+  </si>
+  <si>
+    <t>10,65%</t>
+  </si>
+  <si>
+    <t>34,43%</t>
+  </si>
+  <si>
+    <t>12,17%</t>
+  </si>
+  <si>
+    <t>39,48%</t>
+  </si>
+  <si>
+    <t>11,32%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>26,29%</t>
+  </si>
+  <si>
+    <t>37,34%</t>
+  </si>
+  <si>
+    <t>63,59%</t>
+  </si>
+  <si>
+    <t>22,46%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>55,02%</t>
+  </si>
+  <si>
+    <t>30,75%</t>
+  </si>
+  <si>
+    <t>15,13%</t>
+  </si>
+  <si>
+    <t>50,29%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>30,3%</t>
+  </si>
+  <si>
+    <t>42,98%</t>
+  </si>
+  <si>
+    <t>17,63%</t>
+  </si>
+  <si>
+    <t>70,55%</t>
+  </si>
+  <si>
+    <t>22,36%</t>
+  </si>
+  <si>
+    <t>8,61%</t>
+  </si>
+  <si>
+    <t>40,84%</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>10,82%</t>
+  </si>
+  <si>
+    <t>32,99%</t>
+  </si>
+  <si>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>18,84%</t>
+  </si>
+  <si>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>29,11%</t>
+  </si>
+  <si>
+    <t>36,17%</t>
+  </si>
+  <si>
+    <t>13,61%</t>
+  </si>
+  <si>
+    <t>64,73%</t>
+  </si>
+  <si>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>34,2%</t>
+  </si>
+  <si>
+    <t>74,08%</t>
+  </si>
+  <si>
+    <t>52,29%</t>
+  </si>
+  <si>
+    <t>90,2%</t>
+  </si>
+  <si>
+    <t>27,19%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>55,46%</t>
+  </si>
+  <si>
+    <t>53,57%</t>
+  </si>
+  <si>
+    <t>36,28%</t>
+  </si>
+  <si>
+    <t>70,83%</t>
+  </si>
+  <si>
+    <t>9,4%</t>
+  </si>
+  <si>
+    <t>30,85%</t>
+  </si>
+  <si>
+    <t>31,06%</t>
+  </si>
+  <si>
+    <t>8,04%</t>
+  </si>
+  <si>
+    <t>60,69%</t>
+  </si>
+  <si>
+    <t>18,87%</t>
+  </si>
+  <si>
+    <t>6,96%</t>
+  </si>
+  <si>
+    <t>35,54%</t>
+  </si>
+  <si>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>27,28%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>12,76%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>10,85%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>18,25%</t>
+  </si>
+  <si>
+    <t>10,32%</t>
+  </si>
+  <si>
+    <t>28,46%</t>
+  </si>
+  <si>
+    <t>21,0%</t>
+  </si>
+  <si>
+    <t>12,0%</t>
+  </si>
+  <si>
+    <t>33,73%</t>
+  </si>
+  <si>
+    <t>19,44%</t>
+  </si>
+  <si>
+    <t>12,94%</t>
+  </si>
+  <si>
+    <t>27,39%</t>
+  </si>
+  <si>
+    <t>26,32%</t>
+  </si>
+  <si>
+    <t>17,32%</t>
+  </si>
+  <si>
+    <t>37,73%</t>
+  </si>
+  <si>
+    <t>14,33%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>25,09%</t>
+  </si>
+  <si>
+    <t>21,15%</t>
+  </si>
+  <si>
+    <t>14,99%</t>
+  </si>
+  <si>
+    <t>29,35%</t>
+  </si>
+  <si>
+    <t>21,37%</t>
+  </si>
+  <si>
+    <t>13,03%</t>
+  </si>
+  <si>
+    <t>32,18%</t>
+  </si>
+  <si>
+    <t>29,63%</t>
+  </si>
+  <si>
+    <t>17,78%</t>
+  </si>
+  <si>
+    <t>43,36%</t>
+  </si>
+  <si>
+    <t>24,94%</t>
+  </si>
+  <si>
+    <t>17,76%</t>
+  </si>
+  <si>
+    <t>34,03%</t>
+  </si>
+  <si>
+    <t>30,13%</t>
+  </si>
+  <si>
+    <t>20,39%</t>
+  </si>
+  <si>
+    <t>42,25%</t>
+  </si>
+  <si>
+    <t>35,04%</t>
+  </si>
+  <si>
+    <t>22,58%</t>
+  </si>
+  <si>
+    <t>49,23%</t>
+  </si>
+  <si>
+    <t>32,25%</t>
+  </si>
+  <si>
+    <t>24,63%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según el lugar donde se produjo el accidente en 2012 (Tasa respuesta: 8,58%)</t>
+  </si>
+  <si>
+    <t>28,69%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>20,36%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>29,58%</t>
+  </si>
+  <si>
+    <t>6,82%</t>
+  </si>
+  <si>
+    <t>33,45%</t>
+  </si>
+  <si>
+    <t>7,05%</t>
+  </si>
+  <si>
+    <t>21,42%</t>
+  </si>
+  <si>
+    <t>14,1%</t>
+  </si>
+  <si>
+    <t>42,2%</t>
+  </si>
+  <si>
+    <t>12,32%</t>
+  </si>
+  <si>
+    <t>36,93%</t>
+  </si>
+  <si>
+    <t>13,14%</t>
+  </si>
+  <si>
+    <t>29,26%</t>
+  </si>
+  <si>
+    <t>7,02%</t>
+  </si>
+  <si>
+    <t>28,65%</t>
+  </si>
+  <si>
+    <t>12,19%</t>
+  </si>
+  <si>
+    <t>35,08%</t>
+  </si>
+  <si>
+    <t>9,8%</t>
+  </si>
+  <si>
+    <t>23,46%</t>
+  </si>
+  <si>
+    <t>64,6%</t>
+  </si>
+  <si>
+    <t>38,02%</t>
+  </si>
+  <si>
+    <t>86,22%</t>
+  </si>
+  <si>
+    <t>68,67%</t>
+  </si>
+  <si>
+    <t>44,46%</t>
+  </si>
+  <si>
+    <t>87,66%</t>
+  </si>
+  <si>
+    <t>66,79%</t>
+  </si>
+  <si>
+    <t>50,11%</t>
+  </si>
+  <si>
+    <t>82,99%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>21,38%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>7,58%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>19,11%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>11,42%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
+  </si>
+  <si>
     <t>4,56%</t>
   </si>
   <si>
-    <t>25,21%</t>
-  </si>
-  <si>
-    <t>8,24%</t>
-  </si>
-  <si>
-    <t>26,26%</t>
-  </si>
-  <si>
-    <t>10,29%</t>
-  </si>
-  <si>
-    <t>31,85%</t>
-  </si>
-  <si>
-    <t>9,17%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>22,04%</t>
-  </si>
-  <si>
-    <t>28,96%</t>
+    <t>14,24%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>15,2%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>11,04%</t>
+  </si>
+  <si>
+    <t>36,42%</t>
+  </si>
+  <si>
+    <t>21,04%</t>
+  </si>
+  <si>
+    <t>50,27%</t>
+  </si>
+  <si>
+    <t>51,08%</t>
+  </si>
+  <si>
+    <t>32,22%</t>
+  </si>
+  <si>
+    <t>70,52%</t>
+  </si>
+  <si>
+    <t>42,22%</t>
+  </si>
+  <si>
+    <t>30,18%</t>
+  </si>
+  <si>
+    <t>53,97%</t>
+  </si>
+  <si>
+    <t>31,33%</t>
+  </si>
+  <si>
+    <t>18,78%</t>
+  </si>
+  <si>
+    <t>46,63%</t>
+  </si>
+  <si>
+    <t>27,58%</t>
+  </si>
+  <si>
+    <t>12,05%</t>
+  </si>
+  <si>
+    <t>47,48%</t>
+  </si>
+  <si>
+    <t>29,85%</t>
+  </si>
+  <si>
+    <t>19,79%</t>
+  </si>
+  <si>
+    <t>41,28%</t>
+  </si>
+  <si>
+    <t>25,46%</t>
+  </si>
+  <si>
+    <t>13,83%</t>
+  </si>
+  <si>
+    <t>43,67%</t>
+  </si>
+  <si>
+    <t>10,63%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>25,63%</t>
+  </si>
+  <si>
+    <t>19,6%</t>
+  </si>
+  <si>
+    <t>10,92%</t>
+  </si>
+  <si>
+    <t>32,56%</t>
+  </si>
+  <si>
+    <t>37,32%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>7,3%</t>
+  </si>
+  <si>
+    <t>25,76%</t>
+  </si>
+  <si>
+    <t>10,05%</t>
+  </si>
+  <si>
+    <t>44,85%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>27,55%</t>
+  </si>
+  <si>
+    <t>21,28%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>46,02%</t>
+  </si>
+  <si>
+    <t>12,5%</t>
+  </si>
+  <si>
+    <t>38,85%</t>
+  </si>
+  <si>
+    <t>17,21%</t>
+  </si>
+  <si>
+    <t>33,28%</t>
+  </si>
+  <si>
+    <t>17,83%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>44,55%</t>
+  </si>
+  <si>
+    <t>46,74%</t>
+  </si>
+  <si>
+    <t>73,34%</t>
+  </si>
+  <si>
+    <t>31,24%</t>
+  </si>
+  <si>
+    <t>15,77%</t>
+  </si>
+  <si>
+    <t>49,36%</t>
+  </si>
+  <si>
+    <t>17,5%</t>
+  </si>
+  <si>
+    <t>43,82%</t>
+  </si>
+  <si>
+    <t>22,2%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>51,43%</t>
+  </si>
+  <si>
+    <t>19,68%</t>
+  </si>
+  <si>
+    <t>8,32%</t>
+  </si>
+  <si>
+    <t>36,7%</t>
+  </si>
+  <si>
+    <t>19,74%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>49,4%</t>
+  </si>
+  <si>
+    <t>18,57%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>48,59%</t>
+  </si>
+  <si>
+    <t>19,19%</t>
+  </si>
+  <si>
+    <t>8,31%</t>
+  </si>
+  <si>
+    <t>36,73%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>19,75%</t>
+  </si>
+  <si>
+    <t>23,13%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>46,59%</t>
+  </si>
+  <si>
+    <t>13,26%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>23,22%</t>
+  </si>
+  <si>
+    <t>74,31%</t>
+  </si>
+  <si>
+    <t>56,69%</t>
+  </si>
+  <si>
+    <t>85,81%</t>
+  </si>
+  <si>
+    <t>34,99%</t>
+  </si>
+  <si>
+    <t>16,93%</t>
+  </si>
+  <si>
+    <t>59,11%</t>
+  </si>
+  <si>
+    <t>61,19%</t>
+  </si>
+  <si>
+    <t>47,99%</t>
+  </si>
+  <si>
+    <t>74,49%</t>
+  </si>
+  <si>
+    <t>14,53%</t>
+  </si>
+  <si>
+    <t>29,14%</t>
+  </si>
+  <si>
+    <t>24,41%</t>
+  </si>
+  <si>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>50,21%</t>
+  </si>
+  <si>
+    <t>9,62%</t>
+  </si>
+  <si>
+    <t>30,06%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>14,4%</t>
+  </si>
+  <si>
+    <t>17,47%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>44,28%</t>
+  </si>
+  <si>
+    <t>7,73%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>17,45%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>7,39%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>9,67%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>8,94%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>15,37%</t>
+  </si>
+  <si>
+    <t>10,46%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>19,17%</t>
+  </si>
+  <si>
+    <t>9,57%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>14,34%</t>
+  </si>
+  <si>
+    <t>42,58%</t>
+  </si>
+  <si>
+    <t>34,04%</t>
+  </si>
+  <si>
+    <t>53,18%</t>
+  </si>
+  <si>
+    <t>38,49%</t>
+  </si>
+  <si>
+    <t>28,62%</t>
+  </si>
+  <si>
+    <t>49,48%</t>
+  </si>
+  <si>
+    <t>40,89%</t>
+  </si>
+  <si>
+    <t>33,93%</t>
+  </si>
+  <si>
+    <t>48,88%</t>
+  </si>
+  <si>
+    <t>20,56%</t>
+  </si>
+  <si>
+    <t>14,27%</t>
+  </si>
+  <si>
+    <t>29,3%</t>
+  </si>
+  <si>
+    <t>22,55%</t>
+  </si>
+  <si>
+    <t>13,54%</t>
+  </si>
+  <si>
+    <t>33,04%</t>
+  </si>
+  <si>
+    <t>16,07%</t>
+  </si>
+  <si>
+    <t>28,24%</t>
+  </si>
+  <si>
+    <t>22,17%</t>
+  </si>
+  <si>
+    <t>15,16%</t>
+  </si>
+  <si>
+    <t>31,41%</t>
+  </si>
+  <si>
+    <t>25,86%</t>
+  </si>
+  <si>
+    <t>17,41%</t>
+  </si>
+  <si>
+    <t>37,31%</t>
+  </si>
+  <si>
+    <t>23,7%</t>
+  </si>
+  <si>
+    <t>18,16%</t>
+  </si>
+  <si>
+    <t>Menores según el lugar donde se produjo el accidente en 2016 (Tasa respuesta: 4,42%)</t>
+  </si>
+  <si>
+    <t>36,25%</t>
+  </si>
+  <si>
+    <t>50,0%</t>
+  </si>
+  <si>
+    <t>14,5%</t>
+  </si>
+  <si>
+    <t>61,83%</t>
+  </si>
+  <si>
+    <t>56,93%</t>
+  </si>
+  <si>
+    <t>63,75%</t>
+  </si>
+  <si>
+    <t>85,5%</t>
+  </si>
+  <si>
+    <t>38,17%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>26,73%</t>
+  </si>
+  <si>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>41,11%</t>
+  </si>
+  <si>
+    <t>17,77%</t>
+  </si>
+  <si>
+    <t>17,08%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>27,77%</t>
+  </si>
+  <si>
+    <t>8,55%</t>
+  </si>
+  <si>
+    <t>53,01%</t>
+  </si>
+  <si>
+    <t>9,54%</t>
+  </si>
+  <si>
+    <t>21,24%</t>
+  </si>
+  <si>
+    <t>7,99%</t>
+  </si>
+  <si>
+    <t>42,68%</t>
+  </si>
+  <si>
+    <t>16,22%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>38,61%</t>
+  </si>
+  <si>
+    <t>11,12%</t>
+  </si>
+  <si>
+    <t>46,84%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>30,78%</t>
+  </si>
+  <si>
+    <t>17,89%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>45,34%</t>
+  </si>
+  <si>
+    <t>45,97%</t>
+  </si>
+  <si>
+    <t>11,22%</t>
+  </si>
+  <si>
+    <t>79,0%</t>
+  </si>
+  <si>
+    <t>27,94%</t>
   </si>
   <si>
     <t>11,52%</t>
   </si>
   <si>
-    <t>49,23%</t>
-  </si>
-  <si>
-    <t>41,14%</t>
-  </si>
-  <si>
-    <t>20,79%</t>
-  </si>
-  <si>
-    <t>65,46%</t>
-  </si>
-  <si>
-    <t>34,5%</t>
-  </si>
-  <si>
-    <t>20,83%</t>
-  </si>
-  <si>
-    <t>48,28%</t>
-  </si>
-  <si>
-    <t>47,21%</t>
-  </si>
-  <si>
-    <t>26,27%</t>
-  </si>
-  <si>
-    <t>64,97%</t>
-  </si>
-  <si>
-    <t>37,77%</t>
-  </si>
-  <si>
-    <t>18,11%</t>
-  </si>
-  <si>
-    <t>61,89%</t>
-  </si>
-  <si>
-    <t>42,92%</t>
-  </si>
-  <si>
-    <t>30,73%</t>
-  </si>
-  <si>
-    <t>58,9%</t>
-  </si>
-  <si>
-    <t>8-11</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>46,04%</t>
-  </si>
-  <si>
-    <t>21,42%</t>
-  </si>
-  <si>
-    <t>72,48%</t>
-  </si>
-  <si>
-    <t>22,4%</t>
-  </si>
-  <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>53,21%</t>
-  </si>
-  <si>
-    <t>35,57%</t>
-  </si>
-  <si>
-    <t>20,4%</t>
-  </si>
-  <si>
-    <t>56,13%</t>
-  </si>
-  <si>
-    <t>10,65%</t>
-  </si>
-  <si>
-    <t>34,27%</t>
-  </si>
-  <si>
-    <t>12,17%</t>
-  </si>
-  <si>
-    <t>39,06%</t>
-  </si>
-  <si>
-    <t>11,32%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>25,36%</t>
-  </si>
-  <si>
-    <t>37,34%</t>
-  </si>
-  <si>
-    <t>17,35%</t>
-  </si>
-  <si>
-    <t>63,45%</t>
-  </si>
-  <si>
-    <t>22,46%</t>
-  </si>
-  <si>
-    <t>50,79%</t>
-  </si>
-  <si>
-    <t>30,75%</t>
-  </si>
-  <si>
-    <t>17,17%</t>
-  </si>
-  <si>
-    <t>48,15%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>28,63%</t>
-  </si>
-  <si>
-    <t>42,98%</t>
-  </si>
-  <si>
-    <t>17,0%</t>
-  </si>
-  <si>
-    <t>69,16%</t>
-  </si>
-  <si>
-    <t>22,36%</t>
+    <t>48,55%</t>
+  </si>
+  <si>
+    <t>33,29%</t>
+  </si>
+  <si>
+    <t>14,91%</t>
+  </si>
+  <si>
+    <t>57,33%</t>
+  </si>
+  <si>
+    <t>26,2%</t>
+  </si>
+  <si>
+    <t>6,74%</t>
+  </si>
+  <si>
+    <t>58,51%</t>
+  </si>
+  <si>
+    <t>16,63%</t>
+  </si>
+  <si>
+    <t>51,76%</t>
+  </si>
+  <si>
+    <t>20,07%</t>
+  </si>
+  <si>
+    <t>59,8%</t>
+  </si>
+  <si>
+    <t>21,11%</t>
+  </si>
+  <si>
+    <t>36,06%</t>
+  </si>
+  <si>
+    <t>15,18%</t>
+  </si>
+  <si>
+    <t>64,38%</t>
+  </si>
+  <si>
+    <t>9,14%</t>
+  </si>
+  <si>
+    <t>47,18%</t>
+  </si>
+  <si>
+    <t>26,92%</t>
+  </si>
+  <si>
+    <t>46,53%</t>
+  </si>
+  <si>
+    <t>34,3%</t>
+  </si>
+  <si>
+    <t>16,17%</t>
+  </si>
+  <si>
+    <t>61,62%</t>
+  </si>
+  <si>
+    <t>28,43%</t>
+  </si>
+  <si>
+    <t>7,75%</t>
+  </si>
+  <si>
+    <t>67,27%</t>
+  </si>
+  <si>
+    <t>32,3%</t>
+  </si>
+  <si>
+    <t>16,99%</t>
+  </si>
+  <si>
+    <t>51,57%</t>
+  </si>
+  <si>
+    <t>29,64%</t>
+  </si>
+  <si>
+    <t>54,78%</t>
+  </si>
+  <si>
+    <t>31,88%</t>
+  </si>
+  <si>
+    <t>9,12%</t>
+  </si>
+  <si>
+    <t>64,18%</t>
+  </si>
+  <si>
+    <t>30,4%</t>
+  </si>
+  <si>
+    <t>15,24%</t>
+  </si>
+  <si>
+    <t>51,63%</t>
+  </si>
+  <si>
+    <t>10,49%</t>
+  </si>
+  <si>
+    <t>42,42%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>18,13%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>19,8%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>15,86%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>9,03%</t>
+  </si>
+  <si>
+    <t>28,45%</t>
+  </si>
+  <si>
+    <t>15,49%</t>
+  </si>
+  <si>
+    <t>49,09%</t>
+  </si>
+  <si>
+    <t>11,62%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>31,09%</t>
+  </si>
+  <si>
+    <t>55,91%</t>
+  </si>
+  <si>
+    <t>24,22%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>50,56%</t>
+  </si>
+  <si>
+    <t>28,34%</t>
+  </si>
+  <si>
+    <t>15,08%</t>
+  </si>
+  <si>
+    <t>44,82%</t>
+  </si>
+  <si>
+    <t>35,19%</t>
+  </si>
+  <si>
+    <t>15,63%</t>
+  </si>
+  <si>
+    <t>61,35%</t>
+  </si>
+  <si>
+    <t>21,64%</t>
+  </si>
+  <si>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>50,36%</t>
+  </si>
+  <si>
+    <t>29,76%</t>
+  </si>
+  <si>
+    <t>15,79%</t>
+  </si>
+  <si>
+    <t>47,81%</t>
+  </si>
+  <si>
+    <t>14,9%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>36,31%</t>
+  </si>
+  <si>
+    <t>29,57%</t>
+  </si>
+  <si>
+    <t>7,78%</t>
+  </si>
+  <si>
+    <t>58,62%</t>
+  </si>
+  <si>
+    <t>20,78%</t>
+  </si>
+  <si>
+    <t>9,01%</t>
+  </si>
+  <si>
+    <t>37,95%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>24,88%</t>
+  </si>
+  <si>
+    <t>9,07%</t>
+  </si>
+  <si>
+    <t>35,45%</t>
+  </si>
+  <si>
+    <t>6,75%</t>
+  </si>
+  <si>
+    <t>20,25%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>11,0%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>14,05%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>8,65%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>11,77%</t>
+  </si>
+  <si>
+    <t>26,78%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>12,23%</t>
+  </si>
+  <si>
+    <t>29,56%</t>
+  </si>
+  <si>
+    <t>18,99%</t>
+  </si>
+  <si>
+    <t>43,0%</t>
+  </si>
+  <si>
+    <t>15,03%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>28,85%</t>
+  </si>
+  <si>
+    <t>24,26%</t>
+  </si>
+  <si>
+    <t>15,85%</t>
+  </si>
+  <si>
+    <t>33,16%</t>
+  </si>
+  <si>
+    <t>27,26%</t>
+  </si>
+  <si>
+    <t>16,92%</t>
+  </si>
+  <si>
+    <t>39,92%</t>
+  </si>
+  <si>
+    <t>19,57%</t>
+  </si>
+  <si>
+    <t>8,01%</t>
+  </si>
+  <si>
+    <t>34,79%</t>
+  </si>
+  <si>
+    <t>24,45%</t>
+  </si>
+  <si>
+    <t>16,6%</t>
+  </si>
+  <si>
+    <t>34,52%</t>
+  </si>
+  <si>
+    <t>19,15%</t>
+  </si>
+  <si>
+    <t>10,59%</t>
+  </si>
+  <si>
+    <t>31,15%</t>
+  </si>
+  <si>
+    <t>33,23%</t>
+  </si>
+  <si>
+    <t>18,7%</t>
+  </si>
+  <si>
+    <t>49,98%</t>
+  </si>
+  <si>
+    <t>24,28%</t>
+  </si>
+  <si>
+    <t>33,83%</t>
+  </si>
+  <si>
+    <t>17,87%</t>
+  </si>
+  <si>
+    <t>9,31%</t>
+  </si>
+  <si>
+    <t>29,45%</t>
+  </si>
+  <si>
+    <t>16,06%</t>
+  </si>
+  <si>
+    <t>29,92%</t>
+  </si>
+  <si>
+    <t>11,21%</t>
+  </si>
+  <si>
+    <t>26,71%</t>
+  </si>
+  <si>
+    <t>Menores según el lugar donde se produjo el accidente en 2023 (Tasa respuesta: 2,86%)</t>
+  </si>
+  <si>
+    <t>46,49%</t>
+  </si>
+  <si>
+    <t>53,88%</t>
+  </si>
+  <si>
+    <t>49,25%</t>
+  </si>
+  <si>
+    <t>53,51%</t>
+  </si>
+  <si>
+    <t>46,12%</t>
+  </si>
+  <si>
+    <t>50,75%</t>
+  </si>
+  <si>
+    <t>23,25%</t>
+  </si>
+  <si>
+    <t>57,73%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>28,88%</t>
+  </si>
+  <si>
+    <t>13,1%</t>
+  </si>
+  <si>
+    <t>59,54%</t>
+  </si>
+  <si>
+    <t>7,47%</t>
+  </si>
+  <si>
+    <t>39,71%</t>
+  </si>
+  <si>
+    <t>12,18%</t>
+  </si>
+  <si>
+    <t>53,2%</t>
+  </si>
+  <si>
+    <t>17,34%</t>
+  </si>
+  <si>
+    <t>71,68%</t>
+  </si>
+  <si>
+    <t>14,39%</t>
+  </si>
+  <si>
+    <t>47,5%</t>
+  </si>
+  <si>
+    <t>28,64%</t>
+  </si>
+  <si>
+    <t>74,0%</t>
+  </si>
+  <si>
+    <t>11,33%</t>
+  </si>
+  <si>
+    <t>54,31%</t>
+  </si>
+  <si>
+    <t>21,21%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>50,05%</t>
+  </si>
+  <si>
+    <t>11,24%</t>
+  </si>
+  <si>
+    <t>52,71%</t>
+  </si>
+  <si>
+    <t>16,69%</t>
+  </si>
+  <si>
+    <t>66,51%</t>
+  </si>
+  <si>
+    <t>13,58%</t>
+  </si>
+  <si>
+    <t>43,39%</t>
+  </si>
+  <si>
+    <t>34,84%</t>
+  </si>
+  <si>
+    <t>78,38%</t>
+  </si>
+  <si>
+    <t>43,44%</t>
+  </si>
+  <si>
+    <t>88,19%</t>
+  </si>
+  <si>
+    <t>38,53%</t>
+  </si>
+  <si>
+    <t>10,24%</t>
+  </si>
+  <si>
+    <t>69,17%</t>
+  </si>
+  <si>
+    <t>18,74%</t>
+  </si>
+  <si>
+    <t>13,02%</t>
+  </si>
+  <si>
+    <t>54,45%</t>
+  </si>
+  <si>
+    <t>13,56%</t>
+  </si>
+  <si>
+    <t>59,27%</t>
+  </si>
+  <si>
+    <t>13,24%</t>
+  </si>
+  <si>
+    <t>40,04%</t>
+  </si>
+  <si>
+    <t>23,92%</t>
+  </si>
+  <si>
+    <t>70,02%</t>
+  </si>
+  <si>
+    <t>32,96%</t>
+  </si>
+  <si>
+    <t>80,99%</t>
+  </si>
+  <si>
+    <t>27,52%</t>
+  </si>
+  <si>
+    <t>8,66%</t>
+  </si>
+  <si>
+    <t>55,73%</t>
+  </si>
+  <si>
+    <t>31,22%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>66,94%</t>
+  </si>
+  <si>
+    <t>37,91%</t>
+  </si>
+  <si>
+    <t>22,24%</t>
+  </si>
+  <si>
+    <t>48,69%</t>
+  </si>
+  <si>
+    <t>31,84%</t>
+  </si>
+  <si>
+    <t>70,51%</t>
+  </si>
+  <si>
+    <t>9,27%</t>
+  </si>
+  <si>
+    <t>87,74%</t>
+  </si>
+  <si>
+    <t>37,0%</t>
+  </si>
+  <si>
+    <t>14,49%</t>
+  </si>
+  <si>
+    <t>65,33%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>34,81%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>16,04%</t>
+  </si>
+  <si>
+    <t>12,01%</t>
+  </si>
+  <si>
+    <t>46,96%</t>
+  </si>
+  <si>
+    <t>18,36%</t>
+  </si>
+  <si>
+    <t>53,56%</t>
+  </si>
+  <si>
+    <t>15,01%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>40,46%</t>
+  </si>
+  <si>
+    <t>65,29%</t>
+  </si>
+  <si>
+    <t>35,25%</t>
+  </si>
+  <si>
+    <t>88,51%</t>
+  </si>
+  <si>
+    <t>35,77%</t>
+  </si>
+  <si>
+    <t>9,76%</t>
+  </si>
+  <si>
+    <t>68,59%</t>
+  </si>
+  <si>
+    <t>51,35%</t>
+  </si>
+  <si>
+    <t>30,24%</t>
+  </si>
+  <si>
+    <t>72,18%</t>
+  </si>
+  <si>
+    <t>11,92%</t>
+  </si>
+  <si>
+    <t>53,08%</t>
+  </si>
+  <si>
+    <t>38,14%</t>
+  </si>
+  <si>
+    <t>9,64%</t>
+  </si>
+  <si>
+    <t>68,78%</t>
+  </si>
+  <si>
+    <t>24,3%</t>
+  </si>
+  <si>
+    <t>9,13%</t>
+  </si>
+  <si>
+    <t>10,78%</t>
+  </si>
+  <si>
+    <t>44,02%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>13,57%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>7,29%</t>
+  </si>
+  <si>
+    <t>26,46%</t>
+  </si>
+  <si>
+    <t>7,37%</t>
+  </si>
+  <si>
+    <t>23,57%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>18,37%</t>
+  </si>
+  <si>
+    <t>15,35%</t>
+  </si>
+  <si>
+    <t>33,89%</t>
+  </si>
+  <si>
+    <t>21,53%</t>
   </si>
   <si>
     <t>8,11%</t>
   </si>
   <si>
-    <t>40,37%</t>
-  </si>
-  <si>
-    <t>12-15</t>
-  </si>
-  <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>10,82%</t>
-  </si>
-  <si>
-    <t>32,39%</t>
-  </si>
-  <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>21,4%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>23,06%</t>
-  </si>
-  <si>
-    <t>36,17%</t>
-  </si>
-  <si>
-    <t>14,77%</t>
-  </si>
-  <si>
-    <t>64,64%</t>
-  </si>
-  <si>
-    <t>19,03%</t>
-  </si>
-  <si>
-    <t>6,78%</t>
-  </si>
-  <si>
-    <t>34,03%</t>
-  </si>
-  <si>
-    <t>74,08%</t>
-  </si>
-  <si>
-    <t>51,36%</t>
-  </si>
-  <si>
-    <t>89,98%</t>
-  </si>
-  <si>
-    <t>27,19%</t>
-  </si>
-  <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>55,5%</t>
-  </si>
-  <si>
-    <t>53,57%</t>
-  </si>
-  <si>
-    <t>35,71%</t>
-  </si>
-  <si>
-    <t>70,04%</t>
-  </si>
-  <si>
-    <t>9,4%</t>
-  </si>
-  <si>
-    <t>29,28%</t>
-  </si>
-  <si>
-    <t>31,06%</t>
-  </si>
-  <si>
-    <t>8,01%</t>
-  </si>
-  <si>
-    <t>60,26%</t>
-  </si>
-  <si>
-    <t>18,87%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>34,57%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>24,39%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>10,34%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>10,69%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>18,25%</t>
-  </si>
-  <si>
-    <t>10,46%</t>
-  </si>
-  <si>
-    <t>28,7%</t>
-  </si>
-  <si>
-    <t>21,0%</t>
-  </si>
-  <si>
-    <t>11,28%</t>
-  </si>
-  <si>
-    <t>32,94%</t>
-  </si>
-  <si>
-    <t>19,44%</t>
-  </si>
-  <si>
-    <t>12,52%</t>
-  </si>
-  <si>
-    <t>26,59%</t>
-  </si>
-  <si>
-    <t>26,32%</t>
-  </si>
-  <si>
-    <t>17,09%</t>
-  </si>
-  <si>
-    <t>38,12%</t>
-  </si>
-  <si>
-    <t>14,33%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>26,09%</t>
-  </si>
-  <si>
-    <t>21,15%</t>
-  </si>
-  <si>
-    <t>14,52%</t>
-  </si>
-  <si>
-    <t>28,49%</t>
-  </si>
-  <si>
-    <t>21,37%</t>
-  </si>
-  <si>
-    <t>13,3%</t>
-  </si>
-  <si>
-    <t>33,39%</t>
-  </si>
-  <si>
-    <t>29,63%</t>
-  </si>
-  <si>
-    <t>18,21%</t>
-  </si>
-  <si>
-    <t>43,93%</t>
-  </si>
-  <si>
-    <t>24,94%</t>
-  </si>
-  <si>
-    <t>17,81%</t>
-  </si>
-  <si>
-    <t>33,02%</t>
-  </si>
-  <si>
-    <t>30,13%</t>
-  </si>
-  <si>
-    <t>19,47%</t>
-  </si>
-  <si>
-    <t>42,2%</t>
-  </si>
-  <si>
-    <t>35,04%</t>
-  </si>
-  <si>
-    <t>23,32%</t>
-  </si>
-  <si>
-    <t>49,45%</t>
-  </si>
-  <si>
-    <t>32,25%</t>
-  </si>
-  <si>
-    <t>24,0%</t>
-  </si>
-  <si>
-    <t>41,4%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según el lugar donde se produjo el accidente en 2012 (Tasa respuesta: 8,58%)</t>
-  </si>
-  <si>
-    <t>6,96%</t>
-  </si>
-  <si>
-    <t>32,51%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>17,65%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>36,55%</t>
-  </si>
-  <si>
-    <t>6,82%</t>
-  </si>
-  <si>
-    <t>29,37%</t>
-  </si>
-  <si>
-    <t>7,05%</t>
-  </si>
-  <si>
-    <t>21,34%</t>
-  </si>
-  <si>
-    <t>14,1%</t>
-  </si>
-  <si>
-    <t>42,19%</t>
-  </si>
-  <si>
-    <t>12,32%</t>
-  </si>
-  <si>
-    <t>36,84%</t>
-  </si>
-  <si>
-    <t>13,14%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>29,19%</t>
-  </si>
-  <si>
-    <t>7,02%</t>
-  </si>
-  <si>
-    <t>28,6%</t>
-  </si>
-  <si>
-    <t>12,19%</t>
-  </si>
-  <si>
-    <t>37,45%</t>
-  </si>
-  <si>
-    <t>9,8%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>26,02%</t>
-  </si>
-  <si>
-    <t>64,6%</t>
-  </si>
-  <si>
-    <t>36,14%</t>
-  </si>
-  <si>
-    <t>86,51%</t>
-  </si>
-  <si>
-    <t>68,67%</t>
-  </si>
-  <si>
-    <t>43,92%</t>
-  </si>
-  <si>
-    <t>87,36%</t>
-  </si>
-  <si>
-    <t>66,79%</t>
-  </si>
-  <si>
-    <t>49,65%</t>
-  </si>
-  <si>
-    <t>82,86%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>17,8%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>16,84%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>9,1%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>11,23%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>16,06%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>20,53%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>36,42%</t>
-  </si>
-  <si>
-    <t>22,17%</t>
-  </si>
-  <si>
-    <t>51,63%</t>
-  </si>
-  <si>
-    <t>51,08%</t>
-  </si>
-  <si>
-    <t>31,63%</t>
-  </si>
-  <si>
-    <t>70,91%</t>
-  </si>
-  <si>
-    <t>42,22%</t>
-  </si>
-  <si>
-    <t>31,59%</t>
-  </si>
-  <si>
-    <t>54,95%</t>
-  </si>
-  <si>
-    <t>31,33%</t>
-  </si>
-  <si>
-    <t>19,07%</t>
-  </si>
-  <si>
-    <t>48,48%</t>
-  </si>
-  <si>
-    <t>27,58%</t>
-  </si>
-  <si>
-    <t>11,75%</t>
-  </si>
-  <si>
-    <t>47,17%</t>
-  </si>
-  <si>
-    <t>29,85%</t>
-  </si>
-  <si>
-    <t>20,72%</t>
-  </si>
-  <si>
-    <t>41,67%</t>
-  </si>
-  <si>
-    <t>25,46%</t>
-  </si>
-  <si>
-    <t>12,92%</t>
-  </si>
-  <si>
-    <t>42,91%</t>
-  </si>
-  <si>
-    <t>10,63%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>25,45%</t>
-  </si>
-  <si>
-    <t>19,6%</t>
-  </si>
-  <si>
-    <t>10,55%</t>
-  </si>
-  <si>
-    <t>30,48%</t>
-  </si>
-  <si>
-    <t>13,61%</t>
-  </si>
-  <si>
-    <t>39,98%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>7,3%</t>
-  </si>
-  <si>
-    <t>22,97%</t>
-  </si>
-  <si>
-    <t>10,05%</t>
-  </si>
-  <si>
-    <t>44,6%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>22,99%</t>
-  </si>
-  <si>
-    <t>21,28%</t>
-  </si>
-  <si>
-    <t>6,01%</t>
-  </si>
-  <si>
-    <t>44,98%</t>
-  </si>
-  <si>
-    <t>12,5%</t>
-  </si>
-  <si>
-    <t>37,75%</t>
-  </si>
-  <si>
-    <t>17,21%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>32,75%</t>
-  </si>
-  <si>
-    <t>17,83%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>43,08%</t>
-  </si>
-  <si>
-    <t>46,74%</t>
-  </si>
-  <si>
-    <t>24,91%</t>
-  </si>
-  <si>
-    <t>73,58%</t>
-  </si>
-  <si>
-    <t>31,24%</t>
-  </si>
-  <si>
-    <t>15,73%</t>
-  </si>
-  <si>
-    <t>48,02%</t>
-  </si>
-  <si>
-    <t>17,5%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>44,82%</t>
-  </si>
-  <si>
-    <t>22,2%</t>
-  </si>
-  <si>
-    <t>6,65%</t>
-  </si>
-  <si>
-    <t>51,53%</t>
-  </si>
-  <si>
-    <t>19,68%</t>
-  </si>
-  <si>
-    <t>9,09%</t>
-  </si>
-  <si>
-    <t>40,58%</t>
-  </si>
-  <si>
-    <t>19,74%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>48,51%</t>
-  </si>
-  <si>
-    <t>18,57%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>45,16%</t>
-  </si>
-  <si>
-    <t>19,19%</t>
-  </si>
-  <si>
-    <t>8,31%</t>
-  </si>
-  <si>
-    <t>37,63%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>22,89%</t>
-  </si>
-  <si>
-    <t>23,13%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>49,28%</t>
-  </si>
-  <si>
-    <t>13,26%</t>
-  </si>
-  <si>
-    <t>5,82%</t>
-  </si>
-  <si>
-    <t>25,22%</t>
-  </si>
-  <si>
-    <t>74,31%</t>
-  </si>
-  <si>
-    <t>58,18%</t>
-  </si>
-  <si>
-    <t>86,8%</t>
-  </si>
-  <si>
-    <t>34,99%</t>
-  </si>
-  <si>
-    <t>16,8%</t>
-  </si>
-  <si>
-    <t>58,79%</t>
-  </si>
-  <si>
-    <t>61,19%</t>
-  </si>
-  <si>
-    <t>47,84%</t>
-  </si>
-  <si>
-    <t>74,36%</t>
-  </si>
-  <si>
-    <t>14,53%</t>
-  </si>
-  <si>
-    <t>29,21%</t>
-  </si>
-  <si>
-    <t>24,41%</t>
-  </si>
-  <si>
-    <t>6,71%</t>
-  </si>
-  <si>
-    <t>50,78%</t>
-  </si>
-  <si>
-    <t>8,51%</t>
-  </si>
-  <si>
-    <t>30,26%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>14,4%</t>
-  </si>
-  <si>
-    <t>17,47%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>41,41%</t>
-  </si>
-  <si>
-    <t>7,73%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>19,05%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>7,48%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>7,85%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>7,55%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>6,6%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>8,94%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>15,53%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>19,41%</t>
-  </si>
-  <si>
-    <t>9,57%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>14,01%</t>
-  </si>
-  <si>
-    <t>42,58%</t>
-  </si>
-  <si>
-    <t>34,06%</t>
-  </si>
-  <si>
-    <t>52,8%</t>
-  </si>
-  <si>
-    <t>38,49%</t>
-  </si>
-  <si>
-    <t>27,6%</t>
-  </si>
-  <si>
-    <t>48,8%</t>
-  </si>
-  <si>
-    <t>40,89%</t>
+    <t>41,32%</t>
+  </si>
+  <si>
+    <t>18,03%</t>
+  </si>
+  <si>
+    <t>9,3%</t>
+  </si>
+  <si>
+    <t>32,38%</t>
+  </si>
+  <si>
+    <t>44,63%</t>
+  </si>
+  <si>
+    <t>65,78%</t>
+  </si>
+  <si>
+    <t>23,38%</t>
+  </si>
+  <si>
+    <t>10,51%</t>
+  </si>
+  <si>
+    <t>42,8%</t>
+  </si>
+  <si>
+    <t>35,4%</t>
+  </si>
+  <si>
+    <t>23,45%</t>
+  </si>
+  <si>
+    <t>48,05%</t>
+  </si>
+  <si>
+    <t>17,75%</t>
   </si>
   <si>
     <t>33,68%</t>
   </si>
   <si>
-    <t>47,79%</t>
-  </si>
-  <si>
-    <t>20,56%</t>
-  </si>
-  <si>
-    <t>14,0%</t>
-  </si>
-  <si>
-    <t>22,55%</t>
-  </si>
-  <si>
-    <t>14,48%</t>
-  </si>
-  <si>
-    <t>33,97%</t>
-  </si>
-  <si>
-    <t>21,38%</t>
-  </si>
-  <si>
-    <t>15,96%</t>
-  </si>
-  <si>
-    <t>15,04%</t>
-  </si>
-  <si>
-    <t>32,32%</t>
-  </si>
-  <si>
-    <t>25,86%</t>
-  </si>
-  <si>
-    <t>17,57%</t>
-  </si>
-  <si>
-    <t>37,51%</t>
-  </si>
-  <si>
-    <t>23,7%</t>
-  </si>
-  <si>
-    <t>18,2%</t>
-  </si>
-  <si>
-    <t>30,83%</t>
-  </si>
-  <si>
-    <t>Menores según el lugar donde se produjo el accidente en 2015 (Tasa respuesta: 4,42%)</t>
-  </si>
-  <si>
-    <t>36,25%</t>
-  </si>
-  <si>
-    <t>50,0%</t>
-  </si>
-  <si>
-    <t>14,5%</t>
-  </si>
-  <si>
-    <t>66,56%</t>
-  </si>
-  <si>
-    <t>56,93%</t>
-  </si>
-  <si>
-    <t>63,75%</t>
-  </si>
-  <si>
-    <t>85,5%</t>
-  </si>
-  <si>
-    <t>33,44%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>25,64%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>32,36%</t>
-  </si>
-  <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>17,88%</t>
-  </si>
-  <si>
-    <t>17,08%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>27,77%</t>
-  </si>
-  <si>
-    <t>7,56%</t>
-  </si>
-  <si>
-    <t>54,67%</t>
-  </si>
-  <si>
-    <t>9,54%</t>
-  </si>
-  <si>
-    <t>44,13%</t>
-  </si>
-  <si>
-    <t>21,24%</t>
-  </si>
-  <si>
-    <t>8,05%</t>
-  </si>
-  <si>
-    <t>42,21%</t>
-  </si>
-  <si>
-    <t>16,22%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>39,92%</t>
-  </si>
-  <si>
-    <t>11,12%</t>
-  </si>
-  <si>
-    <t>54,75%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>31,73%</t>
-  </si>
-  <si>
-    <t>17,89%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>44,04%</t>
-  </si>
-  <si>
-    <t>45,97%</t>
-  </si>
-  <si>
-    <t>17,53%</t>
-  </si>
-  <si>
-    <t>80,31%</t>
-  </si>
-  <si>
-    <t>27,94%</t>
-  </si>
-  <si>
-    <t>49,27%</t>
-  </si>
-  <si>
-    <t>33,29%</t>
-  </si>
-  <si>
-    <t>15,18%</t>
-  </si>
-  <si>
-    <t>56,54%</t>
-  </si>
-  <si>
-    <t>26,2%</t>
-  </si>
-  <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>57,43%</t>
-  </si>
-  <si>
-    <t>14,22%</t>
-  </si>
-  <si>
-    <t>48,56%</t>
-  </si>
-  <si>
-    <t>20,07%</t>
-  </si>
-  <si>
-    <t>55,66%</t>
-  </si>
-  <si>
-    <t>20,78%</t>
-  </si>
-  <si>
-    <t>36,06%</t>
-  </si>
-  <si>
-    <t>15,08%</t>
-  </si>
-  <si>
-    <t>60,38%</t>
-  </si>
-  <si>
-    <t>9,14%</t>
-  </si>
-  <si>
-    <t>47,22%</t>
-  </si>
-  <si>
-    <t>26,92%</t>
-  </si>
-  <si>
-    <t>11,3%</t>
-  </si>
-  <si>
-    <t>47,08%</t>
-  </si>
-  <si>
-    <t>34,3%</t>
-  </si>
-  <si>
-    <t>15,32%</t>
-  </si>
-  <si>
-    <t>60,43%</t>
-  </si>
-  <si>
-    <t>28,43%</t>
-  </si>
-  <si>
-    <t>7,58%</t>
-  </si>
-  <si>
-    <t>61,61%</t>
-  </si>
-  <si>
-    <t>32,3%</t>
-  </si>
-  <si>
-    <t>16,4%</t>
-  </si>
-  <si>
-    <t>51,22%</t>
-  </si>
-  <si>
-    <t>29,64%</t>
-  </si>
-  <si>
-    <t>11,04%</t>
-  </si>
-  <si>
-    <t>56,92%</t>
-  </si>
-  <si>
-    <t>31,88%</t>
-  </si>
-  <si>
-    <t>9,52%</t>
-  </si>
-  <si>
-    <t>64,74%</t>
-  </si>
-  <si>
-    <t>30,4%</t>
-  </si>
-  <si>
-    <t>14,88%</t>
-  </si>
-  <si>
-    <t>48,7%</t>
-  </si>
-  <si>
-    <t>10,49%</t>
-  </si>
-  <si>
-    <t>42,78%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>16,68%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>20,34%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>15,71%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>9,03%</t>
-  </si>
-  <si>
-    <t>30,55%</t>
-  </si>
-  <si>
-    <t>15,49%</t>
-  </si>
-  <si>
-    <t>45,98%</t>
-  </si>
-  <si>
-    <t>11,62%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>25,33%</t>
-  </si>
-  <si>
-    <t>31,09%</t>
-  </si>
-  <si>
-    <t>13,43%</t>
-  </si>
-  <si>
-    <t>53,17%</t>
-  </si>
-  <si>
-    <t>24,22%</t>
-  </si>
-  <si>
-    <t>6,11%</t>
-  </si>
-  <si>
-    <t>51,01%</t>
-  </si>
-  <si>
-    <t>28,34%</t>
-  </si>
-  <si>
-    <t>15,36%</t>
-  </si>
-  <si>
-    <t>45,84%</t>
-  </si>
-  <si>
-    <t>35,19%</t>
-  </si>
-  <si>
-    <t>15,88%</t>
-  </si>
-  <si>
-    <t>61,16%</t>
-  </si>
-  <si>
-    <t>21,64%</t>
-  </si>
-  <si>
-    <t>6,69%</t>
-  </si>
-  <si>
-    <t>50,16%</t>
-  </si>
-  <si>
-    <t>29,76%</t>
-  </si>
-  <si>
-    <t>16,97%</t>
-  </si>
-  <si>
-    <t>48,09%</t>
-  </si>
-  <si>
-    <t>14,9%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>35,38%</t>
-  </si>
-  <si>
-    <t>29,57%</t>
-  </si>
-  <si>
-    <t>7,63%</t>
-  </si>
-  <si>
-    <t>59,15%</t>
-  </si>
-  <si>
-    <t>11,37%</t>
-  </si>
-  <si>
-    <t>38,99%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>26,44%</t>
-  </si>
-  <si>
-    <t>9,07%</t>
-  </si>
-  <si>
-    <t>35,03%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>11,6%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>14,66%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>7,86%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>9,96%</t>
-  </si>
-  <si>
-    <t>11,77%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>26,03%</t>
-  </si>
-  <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>13,2%</t>
-  </si>
-  <si>
-    <t>29,56%</t>
-  </si>
-  <si>
-    <t>17,44%</t>
-  </si>
-  <si>
-    <t>42,03%</t>
-  </si>
-  <si>
-    <t>15,03%</t>
-  </si>
-  <si>
-    <t>29,52%</t>
-  </si>
-  <si>
-    <t>24,26%</t>
-  </si>
-  <si>
-    <t>16,18%</t>
-  </si>
-  <si>
-    <t>33,72%</t>
-  </si>
-  <si>
-    <t>27,26%</t>
-  </si>
-  <si>
-    <t>16,96%</t>
-  </si>
-  <si>
-    <t>39,32%</t>
-  </si>
-  <si>
-    <t>19,57%</t>
-  </si>
-  <si>
-    <t>8,84%</t>
-  </si>
-  <si>
-    <t>24,45%</t>
-  </si>
-  <si>
-    <t>16,42%</t>
-  </si>
-  <si>
-    <t>33,6%</t>
-  </si>
-  <si>
-    <t>19,15%</t>
-  </si>
-  <si>
-    <t>10,03%</t>
-  </si>
-  <si>
-    <t>31,81%</t>
-  </si>
-  <si>
-    <t>33,23%</t>
-  </si>
-  <si>
-    <t>20,24%</t>
-  </si>
-  <si>
-    <t>50,74%</t>
-  </si>
-  <si>
-    <t>24,28%</t>
-  </si>
-  <si>
-    <t>33,83%</t>
-  </si>
-  <si>
-    <t>17,87%</t>
-  </si>
-  <si>
-    <t>29,55%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>30,91%</t>
-  </si>
-  <si>
-    <t>10,66%</t>
-  </si>
-  <si>
-    <t>26,07%</t>
-  </si>
-  <si>
-    <t>Menores según el lugar donde se produjo el accidente en 2023 (Tasa respuesta: 2,86%)</t>
-  </si>
-  <si>
-    <t>46,49%</t>
-  </si>
-  <si>
-    <t>53,88%</t>
-  </si>
-  <si>
-    <t>49,25%</t>
-  </si>
-  <si>
-    <t>53,51%</t>
-  </si>
-  <si>
-    <t>46,12%</t>
-  </si>
-  <si>
-    <t>50,75%</t>
-  </si>
-  <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>11,21%</t>
-  </si>
-  <si>
-    <t>55,2%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>27,22%</t>
-  </si>
-  <si>
-    <t>13,1%</t>
-  </si>
-  <si>
-    <t>60,23%</t>
-  </si>
-  <si>
-    <t>7,47%</t>
-  </si>
-  <si>
-    <t>32,15%</t>
-  </si>
-  <si>
-    <t>12,18%</t>
-  </si>
-  <si>
-    <t>54,1%</t>
-  </si>
-  <si>
-    <t>17,34%</t>
-  </si>
-  <si>
-    <t>76,3%</t>
-  </si>
-  <si>
-    <t>14,39%</t>
-  </si>
-  <si>
-    <t>40,63%</t>
-  </si>
-  <si>
-    <t>28,64%</t>
-  </si>
-  <si>
-    <t>73,77%</t>
-  </si>
-  <si>
-    <t>11,33%</t>
-  </si>
-  <si>
-    <t>57,75%</t>
-  </si>
-  <si>
-    <t>21,21%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>51,56%</t>
-  </si>
-  <si>
-    <t>11,24%</t>
-  </si>
-  <si>
-    <t>51,55%</t>
-  </si>
-  <si>
-    <t>16,69%</t>
-  </si>
-  <si>
-    <t>65,13%</t>
-  </si>
-  <si>
-    <t>13,58%</t>
-  </si>
-  <si>
-    <t>40,77%</t>
-  </si>
-  <si>
-    <t>34,84%</t>
-  </si>
-  <si>
-    <t>77,41%</t>
-  </si>
-  <si>
-    <t>43,44%</t>
-  </si>
-  <si>
-    <t>79,7%</t>
-  </si>
-  <si>
-    <t>38,53%</t>
-  </si>
-  <si>
-    <t>10,64%</t>
-  </si>
-  <si>
-    <t>69,37%</t>
-  </si>
-  <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>13,02%</t>
-  </si>
-  <si>
-    <t>61,3%</t>
-  </si>
-  <si>
-    <t>13,56%</t>
-  </si>
-  <si>
-    <t>59,74%</t>
-  </si>
-  <si>
-    <t>13,24%</t>
-  </si>
-  <si>
-    <t>38,01%</t>
-  </si>
-  <si>
-    <t>23,92%</t>
-  </si>
-  <si>
-    <t>67,93%</t>
-  </si>
-  <si>
-    <t>32,96%</t>
-  </si>
-  <si>
-    <t>73,64%</t>
-  </si>
-  <si>
-    <t>27,52%</t>
-  </si>
-  <si>
-    <t>8,88%</t>
-  </si>
-  <si>
-    <t>59,36%</t>
-  </si>
-  <si>
-    <t>31,22%</t>
-  </si>
-  <si>
-    <t>8,2%</t>
-  </si>
-  <si>
-    <t>72,51%</t>
-  </si>
-  <si>
-    <t>8,66%</t>
-  </si>
-  <si>
-    <t>55,46%</t>
-  </si>
-  <si>
-    <t>22,24%</t>
-  </si>
-  <si>
-    <t>50,77%</t>
-  </si>
-  <si>
-    <t>31,84%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>68,94%</t>
-  </si>
-  <si>
-    <t>8,86%</t>
-  </si>
-  <si>
-    <t>80,59%</t>
-  </si>
-  <si>
-    <t>37,0%</t>
-  </si>
-  <si>
-    <t>63,2%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>34,42%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>18,37%</t>
-  </si>
-  <si>
-    <t>12,01%</t>
-  </si>
-  <si>
-    <t>48,93%</t>
-  </si>
-  <si>
-    <t>18,36%</t>
-  </si>
-  <si>
-    <t>56,27%</t>
-  </si>
-  <si>
-    <t>15,01%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>37,33%</t>
-  </si>
-  <si>
-    <t>65,29%</t>
-  </si>
-  <si>
-    <t>32,73%</t>
-  </si>
-  <si>
-    <t>88,53%</t>
-  </si>
-  <si>
-    <t>35,77%</t>
-  </si>
-  <si>
-    <t>9,38%</t>
-  </si>
-  <si>
-    <t>70,22%</t>
-  </si>
-  <si>
-    <t>51,35%</t>
-  </si>
-  <si>
-    <t>29,53%</t>
-  </si>
-  <si>
-    <t>73,15%</t>
-  </si>
-  <si>
-    <t>11,92%</t>
-  </si>
-  <si>
-    <t>46,35%</t>
-  </si>
-  <si>
-    <t>38,14%</t>
-  </si>
-  <si>
-    <t>10,42%</t>
-  </si>
-  <si>
-    <t>70,01%</t>
-  </si>
-  <si>
-    <t>24,3%</t>
-  </si>
-  <si>
-    <t>8,58%</t>
-  </si>
-  <si>
-    <t>45,72%</t>
-  </si>
-  <si>
-    <t>10,78%</t>
-  </si>
-  <si>
-    <t>43,43%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>32,02%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>13,37%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>7,29%</t>
-  </si>
-  <si>
-    <t>7,37%</t>
-  </si>
-  <si>
-    <t>25,44%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>15,35%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>34,08%</t>
-  </si>
-  <si>
-    <t>21,53%</t>
-  </si>
-  <si>
-    <t>8,03%</t>
-  </si>
-  <si>
-    <t>41,91%</t>
-  </si>
-  <si>
-    <t>18,03%</t>
-  </si>
-  <si>
-    <t>8,63%</t>
-  </si>
-  <si>
-    <t>31,74%</t>
-  </si>
-  <si>
-    <t>44,63%</t>
-  </si>
-  <si>
-    <t>26,21%</t>
-  </si>
-  <si>
-    <t>63,4%</t>
-  </si>
-  <si>
-    <t>23,38%</t>
-  </si>
-  <si>
-    <t>10,86%</t>
-  </si>
-  <si>
-    <t>44,16%</t>
-  </si>
-  <si>
-    <t>35,4%</t>
-  </si>
-  <si>
-    <t>23,84%</t>
-  </si>
-  <si>
-    <t>48,89%</t>
-  </si>
-  <si>
-    <t>17,75%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>35,76%</t>
-  </si>
-  <si>
-    <t>16,81%</t>
-  </si>
-  <si>
-    <t>53,67%</t>
+    <t>15,9%</t>
+  </si>
+  <si>
+    <t>56,48%</t>
   </si>
   <si>
     <t>24,66%</t>
   </si>
   <si>
-    <t>13,97%</t>
-  </si>
-  <si>
-    <t>38,48%</t>
-  </si>
-  <si>
-    <t>14,99%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>31,01%</t>
+    <t>38,1%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>32,33%</t>
   </si>
   <si>
     <t>11,57%</t>
   </si>
   <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>31,37%</t>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>34,61%</t>
   </si>
   <si>
     <t>13,51%</t>
   </si>
   <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>26,15%</t>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>25,91%</t>
   </si>
 </sst>
 </file>
@@ -2616,7 +2574,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{550E9606-68D3-4711-9C21-2B975F88F59C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D1C3CEC-1B85-41ED-9739-B66E38B851D7}">
   <dimension ref="A1:Q44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3288,7 +3246,7 @@
         <v>11</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3303,13 +3261,13 @@
         <v>2015</v>
       </c>
       <c r="E15" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="F15" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="G15" s="7" t="s">
         <v>50</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>51</v>
       </c>
       <c r="H15" s="7">
         <v>2</v>
@@ -3318,13 +3276,13 @@
         <v>1444</v>
       </c>
       <c r="J15" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L15" s="7" t="s">
         <v>52</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>53</v>
       </c>
       <c r="M15" s="7">
         <v>5</v>
@@ -3333,13 +3291,13 @@
         <v>3459</v>
       </c>
       <c r="O15" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="P15" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="P15" s="7" t="s">
+      <c r="Q15" s="7" t="s">
         <v>55</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -3354,13 +3312,13 @@
         <v>1324</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>57</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>58</v>
       </c>
       <c r="H16" s="7">
         <v>2</v>
@@ -3369,13 +3327,13 @@
         <v>1374</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>59</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>60</v>
       </c>
       <c r="M16" s="7">
         <v>4</v>
@@ -3384,13 +3342,13 @@
         <v>2699</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>62</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3405,13 +3363,13 @@
         <v>4652</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>65</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>66</v>
       </c>
       <c r="H17" s="7">
         <v>8</v>
@@ -3420,13 +3378,13 @@
         <v>5498</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>68</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>69</v>
       </c>
       <c r="M17" s="7">
         <v>15</v>
@@ -3435,13 +3393,13 @@
         <v>10150</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3456,13 +3414,13 @@
         <v>7582</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="H18" s="7">
         <v>8</v>
@@ -3471,13 +3429,13 @@
         <v>5047</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>78</v>
       </c>
       <c r="M18" s="7">
         <v>19</v>
@@ -3486,13 +3444,13 @@
         <v>12629</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3548,7 +3506,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -3566,37 +3524,37 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="H20" s="7">
+        <v>0</v>
+      </c>
+      <c r="I20" s="7">
+        <v>0</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="H20" s="7">
-        <v>0</v>
-      </c>
-      <c r="I20" s="7">
-        <v>0</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L20" s="7" t="s">
+      <c r="M20" s="7">
+        <v>0</v>
+      </c>
+      <c r="N20" s="7">
+        <v>0</v>
+      </c>
+      <c r="O20" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>84</v>
-      </c>
-      <c r="M20" s="7">
-        <v>0</v>
-      </c>
-      <c r="N20" s="7">
-        <v>0</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3617,37 +3575,37 @@
         <v>12</v>
       </c>
       <c r="G21" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="H21" s="7">
+        <v>0</v>
+      </c>
+      <c r="I21" s="7">
+        <v>0</v>
+      </c>
+      <c r="J21" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L21" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="H21" s="7">
-        <v>0</v>
-      </c>
-      <c r="I21" s="7">
-        <v>0</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L21" s="7" t="s">
+      <c r="M21" s="7">
+        <v>0</v>
+      </c>
+      <c r="N21" s="7">
+        <v>0</v>
+      </c>
+      <c r="O21" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q21" s="7" t="s">
         <v>84</v>
-      </c>
-      <c r="M21" s="7">
-        <v>0</v>
-      </c>
-      <c r="N21" s="7">
-        <v>0</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3668,37 +3626,37 @@
         <v>12</v>
       </c>
       <c r="G22" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="H22" s="7">
+        <v>0</v>
+      </c>
+      <c r="I22" s="7">
+        <v>0</v>
+      </c>
+      <c r="J22" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="H22" s="7">
-        <v>0</v>
-      </c>
-      <c r="I22" s="7">
-        <v>0</v>
-      </c>
-      <c r="J22" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L22" s="7" t="s">
+      <c r="M22" s="7">
+        <v>0</v>
+      </c>
+      <c r="N22" s="7">
+        <v>0</v>
+      </c>
+      <c r="O22" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>84</v>
-      </c>
-      <c r="M22" s="7">
-        <v>0</v>
-      </c>
-      <c r="N22" s="7">
-        <v>0</v>
-      </c>
-      <c r="O22" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3713,13 +3671,13 @@
         <v>5092</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="G23" s="7" t="s">
         <v>87</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>88</v>
       </c>
       <c r="H23" s="7">
         <v>3</v>
@@ -3728,13 +3686,13 @@
         <v>1970</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="K23" s="7" t="s">
+      <c r="L23" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="M23" s="7">
         <v>10</v>
@@ -3743,13 +3701,13 @@
         <v>7062</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="P23" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="P23" s="7" t="s">
+      <c r="Q23" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3764,13 +3722,13 @@
         <v>1178</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G24" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>96</v>
       </c>
       <c r="H24" s="7">
         <v>2</v>
@@ -3779,13 +3737,13 @@
         <v>1070</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>97</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>98</v>
       </c>
       <c r="M24" s="7">
         <v>4</v>
@@ -3794,13 +3752,13 @@
         <v>2248</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>100</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3815,13 +3773,13 @@
         <v>4130</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>104</v>
       </c>
       <c r="H25" s="7">
         <v>3</v>
@@ -3830,13 +3788,13 @@
         <v>1975</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>106</v>
       </c>
       <c r="M25" s="7">
         <v>9</v>
@@ -3845,13 +3803,13 @@
         <v>6105</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3866,13 +3824,13 @@
         <v>659</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>111</v>
       </c>
       <c r="H26" s="7">
         <v>5</v>
@@ -3881,13 +3839,13 @@
         <v>3780</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>114</v>
       </c>
       <c r="M26" s="7">
         <v>6</v>
@@ -3896,13 +3854,13 @@
         <v>4439</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3958,7 +3916,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -3976,37 +3934,37 @@
         <v>12</v>
       </c>
       <c r="G28" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="H28" s="7">
+        <v>0</v>
+      </c>
+      <c r="I28" s="7">
+        <v>0</v>
+      </c>
+      <c r="J28" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="H28" s="7">
-        <v>0</v>
-      </c>
-      <c r="I28" s="7">
-        <v>0</v>
-      </c>
-      <c r="J28" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L28" s="7" t="s">
+      <c r="M28" s="7">
+        <v>0</v>
+      </c>
+      <c r="N28" s="7">
+        <v>0</v>
+      </c>
+      <c r="O28" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="M28" s="7">
-        <v>0</v>
-      </c>
-      <c r="N28" s="7">
-        <v>0</v>
-      </c>
-      <c r="O28" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4027,37 +3985,37 @@
         <v>12</v>
       </c>
       <c r="G29" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="H29" s="7">
+        <v>0</v>
+      </c>
+      <c r="I29" s="7">
+        <v>0</v>
+      </c>
+      <c r="J29" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="H29" s="7">
-        <v>0</v>
-      </c>
-      <c r="I29" s="7">
-        <v>0</v>
-      </c>
-      <c r="J29" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L29" s="7" t="s">
+      <c r="M29" s="7">
+        <v>0</v>
+      </c>
+      <c r="N29" s="7">
+        <v>0</v>
+      </c>
+      <c r="O29" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="M29" s="7">
-        <v>0</v>
-      </c>
-      <c r="N29" s="7">
-        <v>0</v>
-      </c>
-      <c r="O29" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4072,14 +4030,14 @@
         <v>1339</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G30" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="F30" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>123</v>
-      </c>
       <c r="H30" s="7">
         <v>0</v>
       </c>
@@ -4093,7 +4051,7 @@
         <v>12</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="M30" s="7">
         <v>2</v>
@@ -4102,13 +4060,13 @@
         <v>1339</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q30" s="7" t="s">
         <v>124</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -4123,13 +4081,13 @@
         <v>705</v>
       </c>
       <c r="E31" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G31" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>127</v>
       </c>
       <c r="H31" s="7">
         <v>5</v>
@@ -4138,13 +4096,13 @@
         <v>3479</v>
       </c>
       <c r="J31" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="K31" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="K31" s="7" t="s">
+      <c r="L31" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>130</v>
       </c>
       <c r="M31" s="7">
         <v>6</v>
@@ -4153,13 +4111,13 @@
         <v>4183</v>
       </c>
       <c r="O31" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q31" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -4174,13 +4132,13 @@
         <v>9164</v>
       </c>
       <c r="E32" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="G32" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>136</v>
       </c>
       <c r="H32" s="7">
         <v>4</v>
@@ -4189,13 +4147,13 @@
         <v>2615</v>
       </c>
       <c r="J32" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="L32" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="K32" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>139</v>
       </c>
       <c r="M32" s="7">
         <v>18</v>
@@ -4204,13 +4162,13 @@
         <v>11778</v>
       </c>
       <c r="O32" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q32" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="P32" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -4225,13 +4183,13 @@
         <v>1162</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F33" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H33" s="7">
         <v>4</v>
@@ -4240,13 +4198,13 @@
         <v>2988</v>
       </c>
       <c r="J33" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="L33" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="K33" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="L33" s="7" t="s">
-        <v>147</v>
       </c>
       <c r="M33" s="7">
         <v>6</v>
@@ -4255,13 +4213,13 @@
         <v>4150</v>
       </c>
       <c r="O33" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q33" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="P33" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="Q33" s="7" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -4282,7 +4240,7 @@
         <v>12</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H34" s="7">
         <v>1</v>
@@ -4291,13 +4249,13 @@
         <v>537</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="K34" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="M34" s="7">
         <v>1</v>
@@ -4306,13 +4264,13 @@
         <v>537</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="P34" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -4386,37 +4344,37 @@
         <v>12</v>
       </c>
       <c r="G36" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="H36" s="7">
+        <v>0</v>
+      </c>
+      <c r="I36" s="7">
+        <v>0</v>
+      </c>
+      <c r="J36" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K36" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L36" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="M36" s="7">
+        <v>0</v>
+      </c>
+      <c r="N36" s="7">
+        <v>0</v>
+      </c>
+      <c r="O36" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P36" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q36" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="H36" s="7">
-        <v>0</v>
-      </c>
-      <c r="I36" s="7">
-        <v>0</v>
-      </c>
-      <c r="J36" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K36" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="M36" s="7">
-        <v>0</v>
-      </c>
-      <c r="N36" s="7">
-        <v>0</v>
-      </c>
-      <c r="O36" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P36" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -4437,37 +4395,37 @@
         <v>12</v>
       </c>
       <c r="G37" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="H37" s="7">
+        <v>0</v>
+      </c>
+      <c r="I37" s="7">
+        <v>0</v>
+      </c>
+      <c r="J37" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K37" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L37" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="M37" s="7">
+        <v>0</v>
+      </c>
+      <c r="N37" s="7">
+        <v>0</v>
+      </c>
+      <c r="O37" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P37" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q37" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="H37" s="7">
-        <v>0</v>
-      </c>
-      <c r="I37" s="7">
-        <v>0</v>
-      </c>
-      <c r="J37" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K37" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="M37" s="7">
-        <v>0</v>
-      </c>
-      <c r="N37" s="7">
-        <v>0</v>
-      </c>
-      <c r="O37" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P37" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q37" s="7" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -4482,14 +4440,14 @@
         <v>1826</v>
       </c>
       <c r="E38" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="G38" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="F38" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="G38" s="7" t="s">
-        <v>160</v>
-      </c>
       <c r="H38" s="7">
         <v>0</v>
       </c>
@@ -4503,7 +4461,7 @@
         <v>12</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="M38" s="7">
         <v>3</v>
@@ -4512,13 +4470,13 @@
         <v>1826</v>
       </c>
       <c r="O38" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="P38" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q38" s="7" t="s">
         <v>161</v>
-      </c>
-      <c r="P38" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="Q38" s="7" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -4533,13 +4491,13 @@
         <v>8492</v>
       </c>
       <c r="E39" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="F39" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="G39" s="7" t="s">
         <v>164</v>
-      </c>
-      <c r="F39" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="G39" s="7" t="s">
-        <v>166</v>
       </c>
       <c r="H39" s="7">
         <v>11</v>
@@ -4548,13 +4506,13 @@
         <v>7412</v>
       </c>
       <c r="J39" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="K39" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="L39" s="7" t="s">
         <v>167</v>
-      </c>
-      <c r="K39" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="L39" s="7" t="s">
-        <v>169</v>
       </c>
       <c r="M39" s="7">
         <v>23</v>
@@ -4563,13 +4521,13 @@
         <v>15904</v>
       </c>
       <c r="O39" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="P39" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q39" s="7" t="s">
         <v>170</v>
-      </c>
-      <c r="P39" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="Q39" s="7" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -4584,13 +4542,13 @@
         <v>12244</v>
       </c>
       <c r="E40" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="F40" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="G40" s="7" t="s">
         <v>173</v>
-      </c>
-      <c r="F40" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="G40" s="7" t="s">
-        <v>175</v>
       </c>
       <c r="H40" s="7">
         <v>8</v>
@@ -4599,13 +4557,13 @@
         <v>5059</v>
       </c>
       <c r="J40" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="K40" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="L40" s="7" t="s">
         <v>176</v>
-      </c>
-      <c r="K40" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="L40" s="7" t="s">
-        <v>178</v>
       </c>
       <c r="M40" s="7">
         <v>27</v>
@@ -4614,13 +4572,13 @@
         <v>17304</v>
       </c>
       <c r="O40" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="P40" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="Q40" s="7" t="s">
         <v>179</v>
-      </c>
-      <c r="P40" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="Q40" s="7" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -4635,13 +4593,13 @@
         <v>9944</v>
       </c>
       <c r="E41" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="F41" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="G41" s="7" t="s">
         <v>182</v>
-      </c>
-      <c r="F41" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="G41" s="7" t="s">
-        <v>184</v>
       </c>
       <c r="H41" s="7">
         <v>15</v>
@@ -4650,13 +4608,13 @@
         <v>10461</v>
       </c>
       <c r="J41" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="K41" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="L41" s="7" t="s">
         <v>185</v>
-      </c>
-      <c r="K41" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="L41" s="7" t="s">
-        <v>187</v>
       </c>
       <c r="M41" s="7">
         <v>30</v>
@@ -4665,13 +4623,13 @@
         <v>20405</v>
       </c>
       <c r="O41" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="P41" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q41" s="7" t="s">
         <v>188</v>
-      </c>
-      <c r="P41" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="Q41" s="7" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -4686,13 +4644,13 @@
         <v>14019</v>
       </c>
       <c r="E42" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="F42" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="G42" s="7" t="s">
         <v>191</v>
-      </c>
-      <c r="F42" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="G42" s="7" t="s">
-        <v>193</v>
       </c>
       <c r="H42" s="7">
         <v>19</v>
@@ -4701,13 +4659,13 @@
         <v>12372</v>
       </c>
       <c r="J42" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="K42" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="L42" s="7" t="s">
         <v>194</v>
-      </c>
-      <c r="K42" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="L42" s="7" t="s">
-        <v>196</v>
       </c>
       <c r="M42" s="7">
         <v>40</v>
@@ -4716,13 +4674,13 @@
         <v>26391</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>199</v>
+        <v>20</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -4778,7 +4736,7 @@
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
     </row>
   </sheetData>
@@ -4798,7 +4756,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F3F92BF-13C3-4172-9410-13054ED6D448}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B107B366-1594-45B8-A487-12243A36557E}">
   <dimension ref="A1:Q44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4815,7 +4773,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4928,7 +4886,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -4958,7 +4916,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4973,13 +4931,13 @@
         <v>641</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>202</v>
+        <v>147</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -5003,13 +4961,13 @@
         <v>641</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5030,7 +4988,7 @@
         <v>12</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -5060,7 +5018,7 @@
         <v>12</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5075,13 +5033,13 @@
         <v>674</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="H7" s="7">
         <v>1</v>
@@ -5090,13 +5048,13 @@
         <v>731</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="M7" s="7">
         <v>2</v>
@@ -5105,13 +5063,13 @@
         <v>1405</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5126,13 +5084,13 @@
         <v>1298</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="H8" s="7">
         <v>2</v>
@@ -5141,13 +5099,13 @@
         <v>1320</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="M8" s="7">
         <v>4</v>
@@ -5156,13 +5114,13 @@
         <v>2618</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>217</v>
+        <v>200</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5177,13 +5135,13 @@
         <v>647</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="H9" s="7">
         <v>2</v>
@@ -5192,13 +5150,13 @@
         <v>1306</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="K9" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="M9" s="7">
         <v>3</v>
@@ -5207,13 +5165,13 @@
         <v>1953</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>224</v>
+        <v>11</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5228,13 +5186,13 @@
         <v>5950</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="H10" s="7">
         <v>12</v>
@@ -5243,13 +5201,13 @@
         <v>7356</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="M10" s="7">
         <v>21</v>
@@ -5258,13 +5216,13 @@
         <v>13305</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5338,7 +5296,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="H12" s="7">
         <v>1</v>
@@ -5347,13 +5305,13 @@
         <v>656</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="K12" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="M12" s="7">
         <v>1</v>
@@ -5362,13 +5320,13 @@
         <v>656</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="P12" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5389,7 +5347,7 @@
         <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="H13" s="7">
         <v>1</v>
@@ -5398,13 +5356,13 @@
         <v>710</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="M13" s="7">
         <v>1</v>
@@ -5413,13 +5371,13 @@
         <v>710</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>243</v>
+        <v>89</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5434,13 +5392,13 @@
         <v>628</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -5464,13 +5422,13 @@
         <v>628</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5485,13 +5443,13 @@
         <v>1287</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>55</v>
+        <v>242</v>
       </c>
       <c r="F15" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="H15" s="7">
         <v>1</v>
@@ -5500,13 +5458,13 @@
         <v>612</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="K15" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="M15" s="7">
         <v>3</v>
@@ -5515,13 +5473,13 @@
         <v>1900</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>11</v>
+        <v>247</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>52</v>
+        <v>248</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -5536,13 +5494,13 @@
         <v>10285</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="H16" s="7">
         <v>13</v>
@@ -5551,13 +5509,13 @@
         <v>9435</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="M16" s="7">
         <v>28</v>
@@ -5566,13 +5524,13 @@
         <v>19720</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5587,13 +5545,13 @@
         <v>8847</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="H17" s="7">
         <v>7</v>
@@ -5602,13 +5560,13 @@
         <v>5094</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="M17" s="7">
         <v>20</v>
@@ -5617,13 +5575,13 @@
         <v>13941</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5638,13 +5596,13 @@
         <v>7190</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="H18" s="7">
         <v>3</v>
@@ -5653,13 +5611,13 @@
         <v>1963</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="M18" s="7">
         <v>12</v>
@@ -5668,13 +5626,13 @@
         <v>9153</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5730,7 +5688,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -5742,13 +5700,13 @@
         <v>1696</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>279</v>
+        <v>128</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -5763,7 +5721,7 @@
         <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="M20" s="7">
         <v>2</v>
@@ -5772,13 +5730,13 @@
         <v>1696</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5793,13 +5751,13 @@
         <v>1251</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="F21" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="H21" s="7">
         <v>0</v>
@@ -5814,7 +5772,7 @@
         <v>12</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="M21" s="7">
         <v>1</v>
@@ -5823,13 +5781,13 @@
         <v>1251</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="P21" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5850,7 +5808,7 @@
         <v>12</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -5865,7 +5823,7 @@
         <v>12</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="M22" s="7">
         <v>0</v>
@@ -5880,7 +5838,7 @@
         <v>12</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5895,13 +5853,13 @@
         <v>2651</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="H23" s="7">
         <v>2</v>
@@ -5910,13 +5868,13 @@
         <v>1347</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="K23" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="M23" s="7">
         <v>6</v>
@@ -5925,13 +5883,13 @@
         <v>3998</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>294</v>
+        <v>125</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5946,13 +5904,13 @@
         <v>2222</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="H24" s="7">
         <v>7</v>
@@ -5961,13 +5919,13 @@
         <v>5037</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>300</v>
+        <v>201</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="M24" s="7">
         <v>10</v>
@@ -5976,13 +5934,13 @@
         <v>7258</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5997,13 +5955,13 @@
         <v>2180</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>306</v>
+        <v>229</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="H25" s="7">
         <v>3</v>
@@ -6012,13 +5970,13 @@
         <v>2392</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="M25" s="7">
         <v>6</v>
@@ -6027,13 +5985,13 @@
         <v>4572</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6048,13 +6006,13 @@
         <v>2459</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="H26" s="7">
         <v>3</v>
@@ -6063,13 +6021,13 @@
         <v>2001</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="M26" s="7">
         <v>6</v>
@@ -6078,13 +6036,13 @@
         <v>4459</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6140,7 +6098,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -6158,7 +6116,7 @@
         <v>12</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -6188,7 +6146,7 @@
         <v>12</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6209,7 +6167,7 @@
         <v>12</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="H29" s="7">
         <v>0</v>
@@ -6239,7 +6197,7 @@
         <v>12</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6260,7 +6218,7 @@
         <v>12</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="H30" s="7">
         <v>0</v>
@@ -6290,7 +6248,7 @@
         <v>12</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6305,13 +6263,13 @@
         <v>1951</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>325</v>
+        <v>153</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="H31" s="7">
         <v>4</v>
@@ -6320,13 +6278,13 @@
         <v>2719</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
       <c r="M31" s="7">
         <v>7</v>
@@ -6335,13 +6293,13 @@
         <v>4670</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -6356,13 +6314,13 @@
         <v>17441</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="H32" s="7">
         <v>6</v>
@@ -6371,13 +6329,13 @@
         <v>4113</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="M32" s="7">
         <v>32</v>
@@ -6386,13 +6344,13 @@
         <v>21554</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6407,13 +6365,13 @@
         <v>3412</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>342</v>
+        <v>334</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>151</v>
+        <v>285</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="H33" s="7">
         <v>4</v>
@@ -6422,13 +6380,13 @@
         <v>2869</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>345</v>
+        <v>337</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="M33" s="7">
         <v>9</v>
@@ -6437,13 +6395,13 @@
         <v>6280</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -6458,13 +6416,13 @@
         <v>668</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="F34" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="H34" s="7">
         <v>3</v>
@@ -6473,13 +6431,13 @@
         <v>2054</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="M34" s="7">
         <v>4</v>
@@ -6488,13 +6446,13 @@
         <v>2722</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>354</v>
+        <v>346</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -6562,13 +6520,13 @@
         <v>1696</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="F36" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>358</v>
+        <v>350</v>
       </c>
       <c r="H36" s="7">
         <v>1</v>
@@ -6577,13 +6535,13 @@
         <v>656</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
       <c r="K36" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>289</v>
+        <v>352</v>
       </c>
       <c r="M36" s="7">
         <v>3</v>
@@ -6592,13 +6550,13 @@
         <v>2352</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -6613,13 +6571,13 @@
         <v>1893</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="F37" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="H37" s="7">
         <v>1</v>
@@ -6628,13 +6586,13 @@
         <v>710</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="K37" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="M37" s="7">
         <v>3</v>
@@ -6643,13 +6601,13 @@
         <v>2602</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="P37" s="7" t="s">
         <v>361</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>368</v>
+        <v>359</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -6664,13 +6622,13 @@
         <v>628</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="F38" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="H38" s="7">
         <v>0</v>
@@ -6685,7 +6643,7 @@
         <v>12</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="M38" s="7">
         <v>1</v>
@@ -6694,13 +6652,13 @@
         <v>628</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="P38" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>373</v>
+        <v>366</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -6715,13 +6673,13 @@
         <v>6563</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
       <c r="H39" s="7">
         <v>8</v>
@@ -6730,13 +6688,13 @@
         <v>5409</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>165</v>
+        <v>370</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="M39" s="7">
         <v>18</v>
@@ -6745,13 +6703,13 @@
         <v>11972</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -6766,13 +6724,13 @@
         <v>31246</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="H40" s="7">
         <v>28</v>
@@ -6781,13 +6739,13 @@
         <v>19903</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="M40" s="7">
         <v>74</v>
@@ -6796,13 +6754,13 @@
         <v>51149</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -6817,13 +6775,13 @@
         <v>15085</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>218</v>
+        <v>387</v>
       </c>
       <c r="H41" s="7">
         <v>16</v>
@@ -6832,13 +6790,13 @@
         <v>11661</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="M41" s="7">
         <v>38</v>
@@ -6847,13 +6805,13 @@
         <v>26746</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>396</v>
+        <v>231</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>181</v>
+        <v>392</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -6868,13 +6826,13 @@
         <v>16267</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>253</v>
+        <v>393</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="H42" s="7">
         <v>21</v>
@@ -6883,13 +6841,13 @@
         <v>13373</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="M42" s="7">
         <v>43</v>
@@ -6898,13 +6856,13 @@
         <v>29640</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>405</v>
+        <v>189</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -6960,7 +6918,7 @@
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
     </row>
   </sheetData>
@@ -6980,7 +6938,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CC3A8EA-E9D4-47A4-90B0-0A378D43D5B2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFE0FEC0-8041-48BD-9A68-2041FBBCB3C9}">
   <dimension ref="A1:Q44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6997,7 +6955,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -7110,7 +7068,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
@@ -7119,7 +7077,7 @@
         <v>560</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>11</v>
@@ -7134,13 +7092,13 @@
         <v>559</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -7161,7 +7119,7 @@
         <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -7176,7 +7134,7 @@
         <v>12</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -7212,7 +7170,7 @@
         <v>12</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -7227,7 +7185,7 @@
         <v>12</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
@@ -7263,7 +7221,7 @@
         <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -7278,7 +7236,7 @@
         <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
@@ -7314,7 +7272,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -7329,7 +7287,7 @@
         <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -7365,7 +7323,7 @@
         <v>12</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="H9" s="7">
         <v>0</v>
@@ -7380,7 +7338,7 @@
         <v>12</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="M9" s="7">
         <v>0</v>
@@ -7413,7 +7371,7 @@
         <v>34</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>40</v>
@@ -7425,7 +7383,7 @@
         <v>560</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>11</v>
@@ -7440,10 +7398,10 @@
         <v>3299</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>34</v>
@@ -7514,13 +7472,13 @@
         <v>549</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="H12" s="7">
         <v>1</v>
@@ -7529,13 +7487,13 @@
         <v>455</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="K12" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="M12" s="7">
         <v>2</v>
@@ -7544,13 +7502,13 @@
         <v>1003</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>419</v>
+        <v>344</v>
       </c>
       <c r="P12" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -7586,7 +7544,7 @@
         <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -7601,7 +7559,7 @@
         <v>12</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7637,7 +7595,7 @@
         <v>12</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -7652,7 +7610,7 @@
         <v>12</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7667,13 +7625,13 @@
         <v>3160</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="H15" s="7">
         <v>1</v>
@@ -7682,13 +7640,13 @@
         <v>605</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="K15" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>427</v>
+        <v>376</v>
       </c>
       <c r="M15" s="7">
         <v>5</v>
@@ -7697,13 +7655,13 @@
         <v>3765</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>428</v>
+        <v>421</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>429</v>
+        <v>422</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>430</v>
+        <v>423</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -7718,13 +7676,13 @@
         <v>1846</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>431</v>
+        <v>424</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>432</v>
+        <v>425</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>433</v>
+        <v>426</v>
       </c>
       <c r="H16" s="7">
         <v>1</v>
@@ -7733,13 +7691,13 @@
         <v>705</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>435</v>
+        <v>428</v>
       </c>
       <c r="M16" s="7">
         <v>4</v>
@@ -7748,13 +7706,13 @@
         <v>2552</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>436</v>
+        <v>429</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>437</v>
+        <v>430</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7769,13 +7727,13 @@
         <v>2036</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>439</v>
+        <v>432</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>440</v>
+        <v>433</v>
       </c>
       <c r="H17" s="7">
         <v>4</v>
@@ -7784,13 +7742,13 @@
         <v>2917</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>442</v>
+        <v>435</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>443</v>
+        <v>436</v>
       </c>
       <c r="M17" s="7">
         <v>7</v>
@@ -7799,13 +7757,13 @@
         <v>4953</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>444</v>
+        <v>437</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>183</v>
+        <v>438</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7820,13 +7778,13 @@
         <v>3788</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="H18" s="7">
         <v>3</v>
@@ -7835,13 +7793,13 @@
         <v>1663</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
       <c r="M18" s="7">
         <v>9</v>
@@ -7850,13 +7808,13 @@
         <v>5451</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7912,7 +7870,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -7945,7 +7903,7 @@
         <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -7960,7 +7918,7 @@
         <v>12</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7996,7 +7954,7 @@
         <v>12</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="M21" s="7">
         <v>0</v>
@@ -8011,7 +7969,7 @@
         <v>12</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -8041,13 +7999,13 @@
         <v>1257</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="M22" s="7">
         <v>2</v>
@@ -8056,13 +8014,13 @@
         <v>1257</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="P22" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -8077,13 +8035,13 @@
         <v>4396</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="H23" s="7">
         <v>1</v>
@@ -8092,13 +8050,13 @@
         <v>573</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="K23" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="M23" s="7">
         <v>7</v>
@@ -8107,13 +8065,13 @@
         <v>4969</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>463</v>
+        <v>427</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>464</v>
+        <v>457</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -8128,13 +8086,13 @@
         <v>4181</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>467</v>
+        <v>460</v>
       </c>
       <c r="H24" s="7">
         <v>3</v>
@@ -8143,13 +8101,13 @@
         <v>1781</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>468</v>
+        <v>461</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>469</v>
+        <v>462</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>470</v>
+        <v>463</v>
       </c>
       <c r="M24" s="7">
         <v>9</v>
@@ -8158,13 +8116,13 @@
         <v>5962</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>472</v>
+        <v>465</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>473</v>
+        <v>466</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -8179,13 +8137,13 @@
         <v>3614</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>474</v>
+        <v>467</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>475</v>
+        <v>51</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
       <c r="H25" s="7">
         <v>3</v>
@@ -8194,13 +8152,13 @@
         <v>1997</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>477</v>
+        <v>469</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>478</v>
+        <v>470</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>479</v>
+        <v>471</v>
       </c>
       <c r="M25" s="7">
         <v>8</v>
@@ -8209,13 +8167,13 @@
         <v>5611</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>480</v>
+        <v>472</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>481</v>
+        <v>473</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>482</v>
+        <v>474</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8245,13 +8203,13 @@
         <v>657</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>484</v>
+        <v>476</v>
       </c>
       <c r="M26" s="7">
         <v>1</v>
@@ -8260,13 +8218,13 @@
         <v>657</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>485</v>
+        <v>477</v>
       </c>
       <c r="P26" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>486</v>
+        <v>478</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8322,7 +8280,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -8334,13 +8292,13 @@
         <v>662</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>487</v>
+        <v>479</v>
       </c>
       <c r="F28" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>488</v>
+        <v>480</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -8355,7 +8313,7 @@
         <v>12</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="M28" s="7">
         <v>1</v>
@@ -8364,13 +8322,13 @@
         <v>662</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>489</v>
+        <v>481</v>
       </c>
       <c r="P28" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>490</v>
+        <v>482</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8406,7 +8364,7 @@
         <v>12</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="M29" s="7">
         <v>0</v>
@@ -8421,7 +8379,7 @@
         <v>12</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8436,13 +8394,13 @@
         <v>1301</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>492</v>
+        <v>484</v>
       </c>
       <c r="F30" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>493</v>
+        <v>485</v>
       </c>
       <c r="H30" s="7">
         <v>2</v>
@@ -8451,13 +8409,13 @@
         <v>1493</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>494</v>
+        <v>486</v>
       </c>
       <c r="K30" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>495</v>
+        <v>487</v>
       </c>
       <c r="M30" s="7">
         <v>4</v>
@@ -8466,13 +8424,13 @@
         <v>2794</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>496</v>
+        <v>488</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>497</v>
+        <v>489</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>498</v>
+        <v>171</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -8487,13 +8445,13 @@
         <v>4481</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>499</v>
+        <v>490</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>500</v>
+        <v>174</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>501</v>
+        <v>491</v>
       </c>
       <c r="H31" s="7">
         <v>4</v>
@@ -8502,13 +8460,13 @@
         <v>2335</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>502</v>
+        <v>492</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>503</v>
+        <v>493</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>504</v>
+        <v>494</v>
       </c>
       <c r="M31" s="7">
         <v>10</v>
@@ -8517,13 +8475,13 @@
         <v>6816</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>505</v>
+        <v>495</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>506</v>
+        <v>496</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>507</v>
+        <v>497</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -8538,13 +8496,13 @@
         <v>5073</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>508</v>
+        <v>498</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>509</v>
+        <v>499</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>510</v>
+        <v>500</v>
       </c>
       <c r="H32" s="7">
         <v>3</v>
@@ -8553,13 +8511,13 @@
         <v>2086</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>511</v>
+        <v>501</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>512</v>
+        <v>502</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>513</v>
+        <v>503</v>
       </c>
       <c r="M32" s="7">
         <v>10</v>
@@ -8568,13 +8526,13 @@
         <v>7159</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>514</v>
+        <v>504</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>515</v>
+        <v>505</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>516</v>
+        <v>506</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -8589,13 +8547,13 @@
         <v>2148</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>517</v>
+        <v>507</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>518</v>
+        <v>508</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>519</v>
+        <v>509</v>
       </c>
       <c r="H33" s="7">
         <v>4</v>
@@ -8604,13 +8562,13 @@
         <v>2850</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>520</v>
+        <v>510</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>521</v>
+        <v>511</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>522</v>
+        <v>512</v>
       </c>
       <c r="M33" s="7">
         <v>7</v>
@@ -8619,13 +8577,13 @@
         <v>4998</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>456</v>
+        <v>513</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>523</v>
+        <v>514</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>524</v>
+        <v>515</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -8640,13 +8598,13 @@
         <v>750</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>525</v>
+        <v>516</v>
       </c>
       <c r="F34" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>526</v>
+        <v>517</v>
       </c>
       <c r="H34" s="7">
         <v>1</v>
@@ -8655,13 +8613,13 @@
         <v>875</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>527</v>
+        <v>518</v>
       </c>
       <c r="K34" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>528</v>
+        <v>519</v>
       </c>
       <c r="M34" s="7">
         <v>2</v>
@@ -8670,13 +8628,13 @@
         <v>1624</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>450</v>
+        <v>520</v>
       </c>
       <c r="P34" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>125</v>
+        <v>521</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -8744,13 +8702,13 @@
         <v>1211</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>529</v>
+        <v>522</v>
       </c>
       <c r="F36" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>530</v>
+        <v>523</v>
       </c>
       <c r="H36" s="7">
         <v>2</v>
@@ -8759,13 +8717,13 @@
         <v>1014</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>531</v>
+        <v>524</v>
       </c>
       <c r="K36" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>532</v>
+        <v>525</v>
       </c>
       <c r="M36" s="7">
         <v>4</v>
@@ -8774,13 +8732,13 @@
         <v>2225</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>533</v>
+        <v>526</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>534</v>
+        <v>527</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>535</v>
+        <v>528</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -8801,7 +8759,7 @@
         <v>12</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>536</v>
+        <v>271</v>
       </c>
       <c r="H37" s="7">
         <v>0</v>
@@ -8816,7 +8774,7 @@
         <v>12</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>537</v>
+        <v>529</v>
       </c>
       <c r="M37" s="7">
         <v>0</v>
@@ -8831,7 +8789,7 @@
         <v>12</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>538</v>
+        <v>530</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -8846,13 +8804,13 @@
         <v>1301</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>539</v>
+        <v>531</v>
       </c>
       <c r="F38" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>540</v>
+        <v>248</v>
       </c>
       <c r="H38" s="7">
         <v>4</v>
@@ -8861,13 +8819,13 @@
         <v>2751</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>541</v>
+        <v>532</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>542</v>
+        <v>531</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>543</v>
+        <v>533</v>
       </c>
       <c r="M38" s="7">
         <v>6</v>
@@ -8876,13 +8834,13 @@
         <v>4052</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>544</v>
+        <v>534</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>349</v>
+        <v>535</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>545</v>
+        <v>536</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -8897,13 +8855,13 @@
         <v>12037</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>546</v>
+        <v>537</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>547</v>
+        <v>538</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>548</v>
+        <v>539</v>
       </c>
       <c r="H39" s="7">
         <v>6</v>
@@ -8912,13 +8870,13 @@
         <v>3513</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>549</v>
+        <v>540</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>219</v>
+        <v>541</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>550</v>
+        <v>542</v>
       </c>
       <c r="M39" s="7">
         <v>22</v>
@@ -8927,13 +8885,13 @@
         <v>15550</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>551</v>
+        <v>543</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>552</v>
+        <v>544</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>553</v>
+        <v>545</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -8948,13 +8906,13 @@
         <v>11100</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>554</v>
+        <v>546</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>555</v>
+        <v>547</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>556</v>
+        <v>548</v>
       </c>
       <c r="H40" s="7">
         <v>7</v>
@@ -8963,13 +8921,13 @@
         <v>4573</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>557</v>
+        <v>549</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>558</v>
+        <v>550</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>528</v>
+        <v>551</v>
       </c>
       <c r="M40" s="7">
         <v>23</v>
@@ -8978,13 +8936,13 @@
         <v>15673</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>559</v>
+        <v>552</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>560</v>
+        <v>553</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>561</v>
+        <v>554</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -8999,13 +8957,13 @@
         <v>7797</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>562</v>
+        <v>555</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>563</v>
+        <v>556</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>564</v>
+        <v>557</v>
       </c>
       <c r="H41" s="7">
         <v>11</v>
@@ -9014,13 +8972,13 @@
         <v>7765</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>565</v>
+        <v>558</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>566</v>
+        <v>559</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>567</v>
+        <v>560</v>
       </c>
       <c r="M41" s="7">
         <v>22</v>
@@ -9029,13 +8987,13 @@
         <v>15562</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>568</v>
+        <v>561</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>472</v>
+        <v>499</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>569</v>
+        <v>562</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -9050,13 +9008,13 @@
         <v>7277</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>570</v>
+        <v>563</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>478</v>
+        <v>564</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>571</v>
+        <v>565</v>
       </c>
       <c r="H42" s="7">
         <v>6</v>
@@ -9065,13 +9023,13 @@
         <v>3754</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>248</v>
+        <v>566</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>572</v>
+        <v>352</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>573</v>
+        <v>567</v>
       </c>
       <c r="M42" s="7">
         <v>17</v>
@@ -9080,13 +9038,13 @@
         <v>11031</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>574</v>
+        <v>568</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>575</v>
+        <v>569</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -9142,7 +9100,7 @@
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
     </row>
   </sheetData>
@@ -9162,7 +9120,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC1AF4BF-1220-4165-9C67-9AE618E8883B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC310EAF-4E1F-4042-9697-D320F0632331}">
   <dimension ref="A1:Q44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -9179,7 +9137,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>576</v>
+        <v>570</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -9292,7 +9250,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -9307,7 +9265,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -9322,7 +9280,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -9343,7 +9301,7 @@
         <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -9358,7 +9316,7 @@
         <v>12</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -9373,7 +9331,7 @@
         <v>12</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -9394,7 +9352,7 @@
         <v>12</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -9409,7 +9367,7 @@
         <v>12</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
@@ -9424,7 +9382,7 @@
         <v>12</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -9445,7 +9403,7 @@
         <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -9460,7 +9418,7 @@
         <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
@@ -9475,7 +9433,7 @@
         <v>12</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -9490,7 +9448,7 @@
         <v>590</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>577</v>
+        <v>571</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>11</v>
@@ -9505,7 +9463,7 @@
         <v>406</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>578</v>
+        <v>572</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>11</v>
@@ -9520,7 +9478,7 @@
         <v>995</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>579</v>
+        <v>573</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>11</v>
@@ -9547,7 +9505,7 @@
         <v>12</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="H9" s="7">
         <v>0</v>
@@ -9562,7 +9520,7 @@
         <v>12</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="M9" s="7">
         <v>0</v>
@@ -9577,7 +9535,7 @@
         <v>12</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -9592,7 +9550,7 @@
         <v>678</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>580</v>
+        <v>574</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>11</v>
@@ -9607,7 +9565,7 @@
         <v>347</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>581</v>
+        <v>575</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>11</v>
@@ -9622,7 +9580,7 @@
         <v>1026</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>582</v>
+        <v>576</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>11</v>
@@ -9702,7 +9660,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>583</v>
+        <v>577</v>
       </c>
       <c r="H12" s="7">
         <v>1</v>
@@ -9711,13 +9669,13 @@
         <v>424</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>584</v>
+        <v>568</v>
       </c>
       <c r="K12" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>585</v>
+        <v>578</v>
       </c>
       <c r="M12" s="7">
         <v>1</v>
@@ -9726,13 +9684,13 @@
         <v>424</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>586</v>
+        <v>579</v>
       </c>
       <c r="P12" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>587</v>
+        <v>580</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -9753,7 +9711,7 @@
         <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>583</v>
+        <v>577</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -9783,7 +9741,7 @@
         <v>12</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -9798,13 +9756,13 @@
         <v>658</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>588</v>
+        <v>581</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>589</v>
+        <v>582</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -9828,13 +9786,13 @@
         <v>658</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>590</v>
+        <v>583</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>591</v>
+        <v>584</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -9849,13 +9807,13 @@
         <v>612</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>592</v>
+        <v>585</v>
       </c>
       <c r="F15" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>593</v>
+        <v>586</v>
       </c>
       <c r="H15" s="7">
         <v>1</v>
@@ -9864,13 +9822,13 @@
         <v>656</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>594</v>
+        <v>587</v>
       </c>
       <c r="K15" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>595</v>
+        <v>588</v>
       </c>
       <c r="M15" s="7">
         <v>2</v>
@@ -9879,13 +9837,13 @@
         <v>1268</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>596</v>
+        <v>589</v>
       </c>
       <c r="P15" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>597</v>
+        <v>590</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -9900,13 +9858,13 @@
         <v>1440</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>598</v>
+        <v>591</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>599</v>
+        <v>592</v>
       </c>
       <c r="H16" s="7">
         <v>1</v>
@@ -9915,13 +9873,13 @@
         <v>428</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>600</v>
+        <v>593</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>601</v>
+        <v>594</v>
       </c>
       <c r="M16" s="7">
         <v>3</v>
@@ -9930,13 +9888,13 @@
         <v>1868</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>602</v>
+        <v>595</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>603</v>
+        <v>596</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>604</v>
+        <v>597</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -9951,13 +9909,13 @@
         <v>565</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>605</v>
+        <v>598</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>606</v>
+        <v>599</v>
       </c>
       <c r="H17" s="7">
         <v>1</v>
@@ -9966,13 +9924,13 @@
         <v>631</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>607</v>
+        <v>600</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>608</v>
+        <v>601</v>
       </c>
       <c r="M17" s="7">
         <v>2</v>
@@ -9981,13 +9939,13 @@
         <v>1196</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>609</v>
+        <v>602</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>610</v>
+        <v>603</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -10002,13 +9960,13 @@
         <v>1751</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>611</v>
+        <v>604</v>
       </c>
       <c r="F18" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>612</v>
+        <v>605</v>
       </c>
       <c r="H18" s="7">
         <v>2</v>
@@ -10017,13 +9975,13 @@
         <v>1643</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>613</v>
+        <v>606</v>
       </c>
       <c r="K18" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>614</v>
+        <v>607</v>
       </c>
       <c r="M18" s="7">
         <v>4</v>
@@ -10032,13 +9990,13 @@
         <v>3394</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>615</v>
+        <v>608</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>617</v>
+        <v>610</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -10094,7 +10052,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -10112,7 +10070,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>618</v>
+        <v>611</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -10127,7 +10085,7 @@
         <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>583</v>
+        <v>577</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -10142,7 +10100,7 @@
         <v>12</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -10163,7 +10121,7 @@
         <v>12</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>618</v>
+        <v>611</v>
       </c>
       <c r="H21" s="7">
         <v>0</v>
@@ -10178,7 +10136,7 @@
         <v>12</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>583</v>
+        <v>577</v>
       </c>
       <c r="M21" s="7">
         <v>0</v>
@@ -10193,7 +10151,7 @@
         <v>12</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -10208,13 +10166,13 @@
         <v>975</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>619</v>
+        <v>612</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>620</v>
+        <v>613</v>
       </c>
       <c r="H22" s="7">
         <v>1</v>
@@ -10223,13 +10181,13 @@
         <v>671</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>621</v>
+        <v>614</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>622</v>
+        <v>615</v>
       </c>
       <c r="M22" s="7">
         <v>2</v>
@@ -10238,13 +10196,13 @@
         <v>1646</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>623</v>
+        <v>616</v>
       </c>
       <c r="P22" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>624</v>
+        <v>617</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -10259,13 +10217,13 @@
         <v>1791</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>625</v>
+        <v>618</v>
       </c>
       <c r="F23" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>626</v>
+        <v>619</v>
       </c>
       <c r="H23" s="7">
         <v>2</v>
@@ -10274,13 +10232,13 @@
         <v>1632</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>627</v>
+        <v>620</v>
       </c>
       <c r="K23" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>628</v>
+        <v>621</v>
       </c>
       <c r="M23" s="7">
         <v>4</v>
@@ -10289,13 +10247,13 @@
         <v>3422</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>629</v>
+        <v>622</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>630</v>
+        <v>623</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>631</v>
+        <v>624</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -10310,13 +10268,13 @@
         <v>2338</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>632</v>
+        <v>625</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>633</v>
+        <v>626</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>634</v>
+        <v>627</v>
       </c>
       <c r="H24" s="7">
         <v>1</v>
@@ -10325,13 +10283,13 @@
         <v>428</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>635</v>
+        <v>623</v>
       </c>
       <c r="K24" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>636</v>
+        <v>628</v>
       </c>
       <c r="M24" s="7">
         <v>4</v>
@@ -10340,13 +10298,13 @@
         <v>2766</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>637</v>
+        <v>629</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>210</v>
+        <v>534</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>638</v>
+        <v>630</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -10361,13 +10319,13 @@
         <v>2384</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>639</v>
+        <v>631</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>640</v>
+        <v>204</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>641</v>
+        <v>632</v>
       </c>
       <c r="H25" s="7">
         <v>3</v>
@@ -10376,13 +10334,13 @@
         <v>2219</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>307</v>
+        <v>497</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>642</v>
+        <v>633</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>643</v>
+        <v>634</v>
       </c>
       <c r="M25" s="7">
         <v>6</v>
@@ -10391,13 +10349,13 @@
         <v>4602</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>644</v>
+        <v>635</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>549</v>
+        <v>636</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>645</v>
+        <v>637</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -10418,7 +10376,7 @@
         <v>12</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>618</v>
+        <v>611</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -10433,7 +10391,7 @@
         <v>12</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>583</v>
+        <v>577</v>
       </c>
       <c r="M26" s="7">
         <v>0</v>
@@ -10448,7 +10406,7 @@
         <v>12</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -10504,7 +10462,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -10552,7 +10510,7 @@
         <v>12</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>646</v>
+        <v>638</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -10603,7 +10561,7 @@
         <v>12</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>646</v>
+        <v>638</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -10633,13 +10591,13 @@
         <v>597</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>354</v>
+        <v>346</v>
       </c>
       <c r="K30" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>647</v>
+        <v>639</v>
       </c>
       <c r="M30" s="7">
         <v>1</v>
@@ -10648,13 +10606,13 @@
         <v>597</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>648</v>
+        <v>640</v>
       </c>
       <c r="P30" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>649</v>
+        <v>641</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -10669,13 +10627,13 @@
         <v>1036</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>650</v>
+        <v>642</v>
       </c>
       <c r="F31" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>651</v>
+        <v>643</v>
       </c>
       <c r="H31" s="7">
         <v>2</v>
@@ -10684,13 +10642,13 @@
         <v>1417</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>652</v>
+        <v>644</v>
       </c>
       <c r="K31" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>653</v>
+        <v>645</v>
       </c>
       <c r="M31" s="7">
         <v>3</v>
@@ -10699,13 +10657,13 @@
         <v>2453</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>654</v>
+        <v>646</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>655</v>
+        <v>647</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>656</v>
+        <v>648</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -10720,13 +10678,13 @@
         <v>5634</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>657</v>
+        <v>649</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>658</v>
+        <v>650</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>659</v>
+        <v>651</v>
       </c>
       <c r="H32" s="7">
         <v>4</v>
@@ -10735,13 +10693,13 @@
         <v>2760</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>660</v>
+        <v>652</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>661</v>
+        <v>653</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>662</v>
+        <v>654</v>
       </c>
       <c r="M32" s="7">
         <v>12</v>
@@ -10750,13 +10708,13 @@
         <v>8394</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>663</v>
+        <v>655</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>664</v>
+        <v>656</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>665</v>
+        <v>657</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -10771,13 +10729,13 @@
         <v>1028</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>666</v>
+        <v>658</v>
       </c>
       <c r="F33" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>667</v>
+        <v>659</v>
       </c>
       <c r="H33" s="7">
         <v>4</v>
@@ -10786,13 +10744,13 @@
         <v>2943</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>668</v>
+        <v>660</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>669</v>
+        <v>661</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>670</v>
+        <v>662</v>
       </c>
       <c r="M33" s="7">
         <v>5</v>
@@ -10801,13 +10759,13 @@
         <v>3972</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>671</v>
+        <v>663</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>672</v>
+        <v>664</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>673</v>
+        <v>260</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -10822,13 +10780,13 @@
         <v>931</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>674</v>
+        <v>665</v>
       </c>
       <c r="F34" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>675</v>
+        <v>666</v>
       </c>
       <c r="H34" s="7">
         <v>0</v>
@@ -10852,13 +10810,13 @@
         <v>931</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>676</v>
+        <v>667</v>
       </c>
       <c r="P34" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>677</v>
+        <v>392</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -10932,7 +10890,7 @@
         <v>12</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H36" s="7">
         <v>1</v>
@@ -10941,13 +10899,13 @@
         <v>424</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>678</v>
+        <v>668</v>
       </c>
       <c r="K36" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>679</v>
+        <v>669</v>
       </c>
       <c r="M36" s="7">
         <v>1</v>
@@ -10956,13 +10914,13 @@
         <v>424</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>680</v>
+        <v>670</v>
       </c>
       <c r="P36" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>681</v>
+        <v>359</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -10983,7 +10941,7 @@
         <v>12</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H37" s="7">
         <v>0</v>
@@ -11013,7 +10971,7 @@
         <v>12</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>682</v>
+        <v>671</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -11028,13 +10986,13 @@
         <v>1633</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>683</v>
+        <v>672</v>
       </c>
       <c r="F38" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>559</v>
+        <v>673</v>
       </c>
       <c r="H38" s="7">
         <v>2</v>
@@ -11043,13 +11001,13 @@
         <v>1268</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>684</v>
+        <v>674</v>
       </c>
       <c r="K38" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>685</v>
+        <v>675</v>
       </c>
       <c r="M38" s="7">
         <v>4</v>
@@ -11058,13 +11016,13 @@
         <v>2901</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>686</v>
+        <v>676</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>317</v>
+        <v>677</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -11079,13 +11037,13 @@
         <v>3439</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>687</v>
+        <v>678</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>688</v>
+        <v>54</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>689</v>
+        <v>679</v>
       </c>
       <c r="H39" s="7">
         <v>5</v>
@@ -11094,13 +11052,13 @@
         <v>3704</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>690</v>
+        <v>680</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>691</v>
+        <v>681</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>692</v>
+        <v>682</v>
       </c>
       <c r="M39" s="7">
         <v>9</v>
@@ -11109,13 +11067,13 @@
         <v>7143</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>693</v>
+        <v>683</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>694</v>
+        <v>684</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>695</v>
+        <v>685</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -11130,13 +11088,13 @@
         <v>10001</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>696</v>
+        <v>686</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>697</v>
+        <v>417</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>698</v>
+        <v>687</v>
       </c>
       <c r="H40" s="7">
         <v>7</v>
@@ -11145,13 +11103,13 @@
         <v>4022</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>699</v>
+        <v>688</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>700</v>
+        <v>689</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>701</v>
+        <v>690</v>
       </c>
       <c r="M40" s="7">
         <v>21</v>
@@ -11160,13 +11118,13 @@
         <v>14023</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>702</v>
+        <v>691</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>703</v>
+        <v>692</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>704</v>
+        <v>693</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -11181,13 +11139,13 @@
         <v>3977</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>705</v>
+        <v>694</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>706</v>
+        <v>204</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>707</v>
+        <v>306</v>
       </c>
       <c r="H41" s="7">
         <v>8</v>
@@ -11196,13 +11154,13 @@
         <v>5793</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>389</v>
+        <v>695</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>708</v>
+        <v>696</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>709</v>
+        <v>697</v>
       </c>
       <c r="M41" s="7">
         <v>13</v>
@@ -11211,13 +11169,13 @@
         <v>9770</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>710</v>
+        <v>698</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>711</v>
+        <v>404</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>712</v>
+        <v>699</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -11232,13 +11190,13 @@
         <v>3360</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>713</v>
+        <v>178</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>714</v>
+        <v>700</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>715</v>
+        <v>701</v>
       </c>
       <c r="H42" s="7">
         <v>3</v>
@@ -11247,13 +11205,13 @@
         <v>1990</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>716</v>
+        <v>702</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>717</v>
+        <v>703</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>718</v>
+        <v>704</v>
       </c>
       <c r="M42" s="7">
         <v>7</v>
@@ -11262,13 +11220,13 @@
         <v>5350</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>719</v>
+        <v>705</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>720</v>
+        <v>706</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>721</v>
+        <v>707</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -11324,7 +11282,7 @@
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
     </row>
   </sheetData>
